--- a/1_calculation_scripts/1_1_argon/results/mie_results_vle_sle_sve_fluid.xlsx
+++ b/1_calculation_scripts/1_1_argon/results/mie_results_vle_sle_sve_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8188340998961841</v>
       </c>
       <c r="D2">
-        <v>155.2134614325787</v>
+        <v>155.2134614325785</v>
       </c>
       <c r="E2">
-        <v>6116427.340157486</v>
+        <v>6116427.340157426</v>
       </c>
       <c r="F2">
-        <v>13967.03816236747</v>
+        <v>13967.03816236742</v>
       </c>
       <c r="G2">
         <v>3.421740778753814</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>49.84884265007942</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.1368207401181173</v>
       </c>
       <c r="M2">
+        <v>0.1368207401181173</v>
+      </c>
+      <c r="N2">
         <v>1289.399212408292</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>50.9131160505631</v>
       </c>
@@ -626,74 +644,86 @@
         <v>0.1357926059837546</v>
       </c>
       <c r="M3">
+        <v>0.1357926059837546</v>
+      </c>
+      <c r="N3">
         <v>1222.403851985578</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>51.9773894510468</v>
+        <v>51.97738945104679</v>
       </c>
       <c r="B4">
-        <v>87.28971710119103</v>
+        <v>87.28971710119087</v>
       </c>
       <c r="C4">
-        <v>0.2020037302168688</v>
+        <v>0.2020037302168684</v>
       </c>
       <c r="D4">
         <v>42839.64103469053</v>
       </c>
       <c r="E4">
-        <v>8748.335682698333</v>
+        <v>8748.335682698334</v>
       </c>
       <c r="F4">
         <v>8316.218387605277</v>
       </c>
       <c r="G4">
-        <v>47.27195634114288</v>
+        <v>47.27195634114298</v>
       </c>
       <c r="H4">
-        <v>140.80326609558</v>
+        <v>140.8032660955801</v>
       </c>
       <c r="I4">
-        <v>1.146197925037245E-09</v>
+        <v>1.146197925037246E-09</v>
       </c>
       <c r="J4">
         <v>4.901830511765299E-10</v>
       </c>
       <c r="K4">
-        <v>0.001177826480674133</v>
+        <v>0.001177826480674132</v>
       </c>
       <c r="L4">
         <v>0.1349166931599491</v>
       </c>
       <c r="M4">
-        <v>1174.249398821852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.1349166931599491</v>
+      </c>
+      <c r="N4">
+        <v>1174.24939882185</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>53.04166285153048</v>
       </c>
       <c r="B5">
-        <v>130.5896072737239</v>
+        <v>130.589607273724</v>
       </c>
       <c r="C5">
-        <v>0.2961562337378552</v>
+        <v>0.2961562337378555</v>
       </c>
       <c r="D5">
         <v>42404.46703884473</v>
       </c>
       <c r="E5">
-        <v>8602.135928576081</v>
+        <v>8602.135928576083</v>
       </c>
       <c r="F5">
-        <v>8161.19064244376</v>
+        <v>8161.190642443762</v>
       </c>
       <c r="G5">
-        <v>47.80989548091074</v>
+        <v>47.80989548091096</v>
       </c>
       <c r="H5">
-        <v>133.7758028391395</v>
+        <v>133.7758028391397</v>
       </c>
       <c r="I5">
         <v>1.168223700054548E-09</v>
@@ -702,109 +732,127 @@
         <v>5.055763139283334E-10</v>
       </c>
       <c r="K5">
-        <v>0.001177229159090516</v>
+        <v>0.001177229159090515</v>
       </c>
       <c r="L5">
         <v>0.1341831659686339</v>
       </c>
       <c r="M5">
-        <v>1138.263024916604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.1341831659686339</v>
+      </c>
+      <c r="N5">
+        <v>1138.263024916603</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>54.10593625201417</v>
+        <v>54.10593625201416</v>
       </c>
       <c r="B6">
-        <v>191.0823698499531</v>
+        <v>191.082369849951</v>
       </c>
       <c r="C6">
-        <v>0.42484409789754</v>
+        <v>0.4248440978975354</v>
       </c>
       <c r="D6">
-        <v>41992.02261883554</v>
+        <v>41992.02261883555</v>
       </c>
       <c r="E6">
-        <v>8463.546586773035</v>
+        <v>8463.546586773036</v>
       </c>
       <c r="F6">
-        <v>8013.780572448825</v>
+        <v>8013.780572448826</v>
       </c>
       <c r="G6">
-        <v>47.33904584196205</v>
+        <v>47.3390458419621</v>
       </c>
       <c r="H6">
-        <v>126.5011274909063</v>
+        <v>126.5011274909065</v>
       </c>
       <c r="I6">
-        <v>1.190161792079948E-09</v>
+        <v>1.190161792079949E-09</v>
       </c>
       <c r="J6">
-        <v>5.21692775903041E-10</v>
+        <v>5.216927759030409E-10</v>
       </c>
       <c r="K6">
-        <v>0.001171792884483032</v>
+        <v>0.001171792884483034</v>
       </c>
       <c r="L6">
         <v>0.1335823585966482</v>
       </c>
       <c r="M6">
+        <v>0.1335823585966482</v>
+      </c>
+      <c r="N6">
         <v>1110.603711560795</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>55.17020965249785</v>
+        <v>55.17020965249784</v>
       </c>
       <c r="B7">
-        <v>273.9399943678653</v>
+        <v>273.9399943678736</v>
       </c>
       <c r="C7">
-        <v>0.5973602506261626</v>
+        <v>0.5973602506261809</v>
       </c>
       <c r="D7">
-        <v>41600.42393478792</v>
+        <v>41600.42393478793</v>
       </c>
       <c r="E7">
-        <v>8332.725234589465</v>
+        <v>8332.72523458947</v>
       </c>
       <c r="F7">
-        <v>7874.147583199879</v>
+        <v>7874.147583199883</v>
       </c>
       <c r="G7">
-        <v>46.12557695946366</v>
+        <v>46.1255769594636</v>
       </c>
       <c r="H7">
-        <v>119.1624854696286</v>
+        <v>119.1624854696287</v>
       </c>
       <c r="I7">
-        <v>1.212085438656981E-09</v>
+        <v>1.21208543865698E-09</v>
       </c>
       <c r="J7">
-        <v>5.38600784121179E-10</v>
+        <v>5.386007841211784E-10</v>
       </c>
       <c r="K7">
-        <v>0.001161348856382794</v>
+        <v>0.001161348856382795</v>
       </c>
       <c r="L7">
         <v>0.1331043731408726</v>
       </c>
       <c r="M7">
-        <v>1088.886550948081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1331043731408726</v>
+      </c>
+      <c r="N7">
+        <v>1088.886550948082</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>56.23448305298154</v>
+        <v>56.23448305298152</v>
       </c>
       <c r="B8">
-        <v>385.3951703315981</v>
+        <v>385.395170331595</v>
       </c>
       <c r="C8">
-        <v>0.8245732360944914</v>
+        <v>0.824573236094485</v>
       </c>
       <c r="D8">
-        <v>41227.95628431906</v>
+        <v>41227.95628431907</v>
       </c>
       <c r="E8">
         <v>8209.65501292561</v>
@@ -813,10 +861,10 @@
         <v>7742.276925132219</v>
       </c>
       <c r="G8">
-        <v>44.38683231570098</v>
+        <v>44.38683231570102</v>
       </c>
       <c r="H8">
-        <v>111.904077376158</v>
+        <v>111.9040773761582</v>
       </c>
       <c r="I8">
         <v>1.234067850261327E-09</v>
@@ -825,437 +873,503 @@
         <v>5.563726962142902E-10</v>
       </c>
       <c r="K8">
-        <v>0.00114579269707067</v>
+        <v>0.001145792697070671</v>
       </c>
       <c r="L8">
         <v>0.132738767349557</v>
       </c>
       <c r="M8">
-        <v>1071.540862728135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.132738767349557</v>
+      </c>
+      <c r="N8">
+        <v>1071.540862728136</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>57.29875645346523</v>
+        <v>57.29875645346522</v>
       </c>
       <c r="B9">
-        <v>532.8520864098399</v>
+        <v>532.8520864098366</v>
       </c>
       <c r="C9">
-        <v>1.119018797779825</v>
+        <v>1.119018797779819</v>
       </c>
       <c r="D9">
         <v>40873.05668639008</v>
       </c>
       <c r="E9">
-        <v>8094.183530439976</v>
+        <v>8094.183530439977</v>
       </c>
       <c r="F9">
-        <v>7618.018608878426</v>
+        <v>7618.018608878428</v>
       </c>
       <c r="G9">
-        <v>42.29749972780711</v>
+        <v>42.29749972780717</v>
       </c>
       <c r="H9">
-        <v>104.8360194897843</v>
+        <v>104.8360194897845</v>
       </c>
       <c r="I9">
-        <v>1.256181841178345E-09</v>
+        <v>1.256181841178344E-09</v>
       </c>
       <c r="J9">
         <v>5.75085009757814E-10</v>
       </c>
       <c r="K9">
-        <v>0.001125101126135131</v>
+        <v>0.00112510112613513</v>
       </c>
       <c r="L9">
         <v>0.1324743654409523</v>
       </c>
       <c r="M9">
+        <v>0.1324743654409523</v>
+      </c>
+      <c r="N9">
         <v>1057.481181340718</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>58.36302985394892</v>
+        <v>58.3630298539489</v>
       </c>
       <c r="B10">
-        <v>724.9942522175759</v>
+        <v>724.9942522175641</v>
       </c>
       <c r="C10">
-        <v>1.494977349783232</v>
+        <v>1.494977349783208</v>
       </c>
       <c r="D10">
-        <v>40534.29846978084</v>
+        <v>40534.29846978085</v>
       </c>
       <c r="E10">
-        <v>7986.056414020739</v>
+        <v>7986.056414020736</v>
       </c>
       <c r="F10">
-        <v>7501.120964479755</v>
+        <v>7501.120964479756</v>
       </c>
       <c r="G10">
-        <v>39.99570563824076</v>
+        <v>39.99570563824071</v>
       </c>
       <c r="H10">
-        <v>98.03938240013582</v>
+        <v>98.03938240013586</v>
       </c>
       <c r="I10">
-        <v>1.278499565467856E-09</v>
+        <v>1.278499565467855E-09</v>
       </c>
       <c r="J10">
-        <v>5.948184657183354E-10</v>
+        <v>5.948184657183342E-10</v>
       </c>
       <c r="K10">
-        <v>0.001099352371971944</v>
+        <v>0.001099352371971946</v>
       </c>
       <c r="L10">
-        <v>0.1322992107735793</v>
+        <v>0.1322992107735794</v>
       </c>
       <c r="M10">
-        <v>1045.926057725435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.1322992107735794</v>
+      </c>
+      <c r="N10">
+        <v>1045.926057725436</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>59.4273032544326</v>
+        <v>59.42730325443259</v>
       </c>
       <c r="B11">
-        <v>971.8882132680748</v>
+        <v>971.888213268089</v>
       </c>
       <c r="C11">
-        <v>1.968537350146733</v>
+        <v>1.968537350146763</v>
       </c>
       <c r="D11">
-        <v>40210.37760457169</v>
+        <v>40210.3776045717</v>
       </c>
       <c r="E11">
-        <v>7884.945595244931</v>
+        <v>7884.945595244933</v>
       </c>
       <c r="F11">
-        <v>7391.258933156578</v>
+        <v>7391.258933156583</v>
       </c>
       <c r="G11">
-        <v>37.5887537874483</v>
+        <v>37.58875378744833</v>
       </c>
       <c r="H11">
-        <v>91.57100844774394</v>
+        <v>91.57100844774405</v>
       </c>
       <c r="I11">
-        <v>1.301092350794487E-09</v>
+        <v>1.301092350794486E-09</v>
       </c>
       <c r="J11">
-        <v>6.156581186606163E-10</v>
+        <v>6.156581186606161E-10</v>
       </c>
       <c r="K11">
-        <v>0.001068747900147089</v>
+        <v>0.00106874790014709</v>
       </c>
       <c r="L11">
-        <v>0.1322006615127819</v>
+        <v>0.132200661512782</v>
       </c>
       <c r="M11">
-        <v>1036.292519992758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.132200661512782</v>
+      </c>
+      <c r="N11">
+        <v>1036.292519992759</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>60.49157665491629</v>
+        <v>60.49157665491627</v>
       </c>
       <c r="B12">
-        <v>1285.082153673066</v>
+        <v>1285.082153673062</v>
       </c>
       <c r="C12">
-        <v>2.557644900129719</v>
+        <v>2.557644900129712</v>
       </c>
       <c r="D12">
-        <v>39900.10055579867</v>
+        <v>39900.10055579869</v>
       </c>
       <c r="E12">
-        <v>7790.472674499527</v>
+        <v>7790.472674499529</v>
       </c>
       <c r="F12">
-        <v>7288.057433699116</v>
+        <v>7288.057433699121</v>
       </c>
       <c r="G12">
-        <v>35.15834538046299</v>
+        <v>35.15834538046307</v>
       </c>
       <c r="H12">
-        <v>85.46792776338405</v>
+        <v>85.46792776338417</v>
       </c>
       <c r="I12">
-        <v>1.324030620923559E-09</v>
+        <v>1.324030620923557E-09</v>
       </c>
       <c r="J12">
-        <v>6.376933656023955E-10</v>
+        <v>6.376933656023951E-10</v>
       </c>
       <c r="K12">
-        <v>0.001033631567078583</v>
+        <v>0.001033631567078584</v>
       </c>
       <c r="L12">
         <v>0.1321656128130652</v>
       </c>
       <c r="M12">
+        <v>0.1321656128130652</v>
+      </c>
+      <c r="N12">
         <v>1028.131857242097</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>61.55585005539997</v>
+        <v>61.55585005539995</v>
       </c>
       <c r="B13">
-        <v>1677.698486129733</v>
+        <v>1677.69848612971</v>
       </c>
       <c r="C13">
-        <v>3.282140111346239</v>
+        <v>3.282140111346194</v>
       </c>
       <c r="D13">
-        <v>39602.37346934753</v>
+        <v>39602.37346934754</v>
       </c>
       <c r="E13">
-        <v>7702.227847170839</v>
+        <v>7702.227847170843</v>
       </c>
       <c r="F13">
-        <v>7191.110287885791</v>
+        <v>7191.110287885795</v>
       </c>
       <c r="G13">
-        <v>32.76520384001125</v>
+        <v>32.76520384001132</v>
       </c>
       <c r="H13">
-        <v>79.75128086210155</v>
+        <v>79.75128086210172</v>
       </c>
       <c r="I13">
-        <v>1.347383897317783E-09</v>
+        <v>1.347383897317782E-09</v>
       </c>
       <c r="J13">
-        <v>6.610179249212418E-10</v>
+        <v>6.610179249212404E-10</v>
       </c>
       <c r="K13">
-        <v>0.0009945011853238241</v>
+        <v>0.0009945011853238245</v>
       </c>
       <c r="L13">
         <v>0.1321808144191967</v>
       </c>
       <c r="M13">
+        <v>0.1321808144191967</v>
+      </c>
+      <c r="N13">
         <v>1021.089226368783</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>62.62012345588366</v>
+        <v>62.62012345588364</v>
       </c>
       <c r="B14">
-        <v>2164.519626973701</v>
+        <v>2164.519626973702</v>
       </c>
       <c r="C14">
-        <v>4.163780945148895</v>
+        <v>4.163780945148897</v>
       </c>
       <c r="D14">
-        <v>39316.19252698888</v>
+        <v>39316.19252698889</v>
       </c>
       <c r="E14">
-        <v>7619.784939286122</v>
+        <v>7619.784939286118</v>
       </c>
       <c r="F14">
-        <v>7099.995252439658</v>
+        <v>7099.99525243966</v>
       </c>
       <c r="G14">
-        <v>30.45308699704855</v>
+        <v>30.45308699704858</v>
       </c>
       <c r="H14">
-        <v>74.42971744621771</v>
+        <v>74.42971744621779</v>
       </c>
       <c r="I14">
-        <v>1.371220870190594E-09</v>
+        <v>1.371220870190591E-09</v>
       </c>
       <c r="J14">
-        <v>6.857297563652433E-10</v>
+        <v>6.85729756365242E-10</v>
       </c>
       <c r="K14">
-        <v>0.000952007259449031</v>
+        <v>0.0009520072594490332</v>
       </c>
       <c r="L14">
         <v>0.1322332432679352</v>
       </c>
       <c r="M14">
-        <v>1014.877632532479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.1322332432679352</v>
+      </c>
+      <c r="N14">
+        <v>1014.877632532481</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>63.68439685636734</v>
+        <v>63.68439685636733</v>
       </c>
       <c r="B15">
-        <v>2762.066251087539</v>
+        <v>2762.066251087544</v>
       </c>
       <c r="C15">
-        <v>5.226255353269772</v>
+        <v>5.226255353269782</v>
       </c>
       <c r="D15">
         <v>39040.63532990791</v>
       </c>
       <c r="E15">
-        <v>7542.713108898194</v>
+        <v>7542.713108898195</v>
       </c>
       <c r="F15">
-        <v>7014.285713998843</v>
+        <v>7014.285713998845</v>
       </c>
       <c r="G15">
-        <v>28.25220842977486</v>
+        <v>28.25220842977481</v>
       </c>
       <c r="H15">
-        <v>69.50228163728271</v>
+        <v>69.50228163728269</v>
       </c>
       <c r="I15">
-        <v>1.395609529753845E-09</v>
+        <v>1.395609529753844E-09</v>
       </c>
       <c r="J15">
-        <v>7.119309131212802E-10</v>
+        <v>7.119309131212795E-10</v>
       </c>
       <c r="K15">
-        <v>0.0009069348290542017</v>
+        <v>0.0009069348290542037</v>
       </c>
       <c r="L15">
         <v>0.1323104874956701</v>
       </c>
       <c r="M15">
-        <v>1009.260914062589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.1323104874956701</v>
+      </c>
+      <c r="N15">
+        <v>1009.26091406259</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>64.74867025685104</v>
+        <v>64.74867025685101</v>
       </c>
       <c r="B16">
-        <v>3488.667422207955</v>
+        <v>3488.667422207992</v>
       </c>
       <c r="C16">
-        <v>6.495182649528728</v>
+        <v>6.495182649528802</v>
       </c>
       <c r="D16">
         <v>38774.85318901757</v>
       </c>
       <c r="E16">
-        <v>7470.585744035133</v>
+        <v>7470.585744035136</v>
       </c>
       <c r="F16">
         <v>6933.559578161583</v>
       </c>
       <c r="G16">
-        <v>26.18211277631586</v>
+        <v>26.18211277631602</v>
       </c>
       <c r="H16">
-        <v>64.96081846541503</v>
+        <v>64.96081846541514</v>
       </c>
       <c r="I16">
-        <v>1.420617349088815E-09</v>
+        <v>1.420617349088816E-09</v>
       </c>
       <c r="J16">
         <v>7.39727317121628E-10</v>
       </c>
       <c r="K16">
-        <v>0.0008601671204572576</v>
+        <v>0.0008601671204572579</v>
       </c>
       <c r="L16">
         <v>0.1324011007303396</v>
       </c>
       <c r="M16">
-        <v>1004.042531312186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.1324011007303396</v>
+      </c>
+      <c r="N16">
+        <v>1004.042531312184</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>65.81294365733473</v>
+        <v>65.8129436573347</v>
       </c>
       <c r="B17">
-        <v>4364.522101186176</v>
+        <v>4364.522101186128</v>
       </c>
       <c r="C17">
-        <v>7.998105127100541</v>
+        <v>7.998105127100455</v>
       </c>
       <c r="D17">
-        <v>38518.06421636957</v>
+        <v>38518.06421636958</v>
       </c>
       <c r="E17">
         <v>7402.987042763291</v>
       </c>
       <c r="F17">
-        <v>6857.405838438317</v>
+        <v>6857.405838438318</v>
       </c>
       <c r="G17">
-        <v>24.25406167552517</v>
+        <v>24.25406167552525</v>
       </c>
       <c r="H17">
-        <v>60.79194957916625</v>
+        <v>60.79194957916644</v>
       </c>
       <c r="I17">
-        <v>1.446311510968204E-09</v>
+        <v>1.446311510968203E-09</v>
       </c>
       <c r="J17">
-        <v>7.692284493987067E-10</v>
+        <v>7.692284493987066E-10</v>
       </c>
       <c r="K17">
-        <v>0.0008126336366019748</v>
+        <v>0.0008126336366019762</v>
       </c>
       <c r="L17">
         <v>0.132494892318049</v>
       </c>
       <c r="M17">
-        <v>999.0581593890922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.132494892318049</v>
+      </c>
+      <c r="N17">
+        <v>999.0581593890928</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>66.87721705781841</v>
+        <v>66.87721705781838</v>
       </c>
       <c r="B18">
-        <v>5411.751648365099</v>
+        <v>5411.75164836515</v>
       </c>
       <c r="C18">
-        <v>9.764471007539489</v>
+        <v>9.764471007539585</v>
       </c>
       <c r="D18">
         <v>38269.54712559392</v>
       </c>
       <c r="E18">
-        <v>7339.516706084397</v>
+        <v>7339.516706084389</v>
       </c>
       <c r="F18">
-        <v>6785.42925615152</v>
+        <v>6785.42925615151</v>
       </c>
       <c r="G18">
-        <v>22.47299112615877</v>
+        <v>22.47299112615878</v>
       </c>
       <c r="H18">
-        <v>56.97867141283502</v>
+        <v>56.97867141283504</v>
       </c>
       <c r="I18">
-        <v>1.47275917197804E-09</v>
+        <v>1.472759171978041E-09</v>
       </c>
       <c r="J18">
         <v>8.005469484017396E-10</v>
       </c>
       <c r="K18">
-        <v>0.0007652493236436471</v>
+        <v>0.0007652493236436474</v>
       </c>
       <c r="L18">
-        <v>0.1325831286103996</v>
+        <v>0.1325831286103995</v>
       </c>
       <c r="M18">
-        <v>994.1707750586875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1325831286103995</v>
+      </c>
+      <c r="N18">
+        <v>994.1707750586874</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>67.94149045830208</v>
+        <v>67.94149045830206</v>
       </c>
       <c r="B19">
-        <v>6654.443055038713</v>
+        <v>6654.443055038683</v>
       </c>
       <c r="C19">
-        <v>11.82560986668557</v>
+        <v>11.82560986668552</v>
       </c>
       <c r="D19">
-        <v>38028.63566091428</v>
+        <v>38028.63566091429</v>
       </c>
       <c r="E19">
         <v>7279.793116870107</v>
@@ -1264,7 +1378,7 @@
         <v>6717.253524831065</v>
       </c>
       <c r="G19">
-        <v>20.83910023496858</v>
+        <v>20.83910023496856</v>
       </c>
       <c r="H19">
         <v>53.50162921894341</v>
@@ -1273,3378 +1387,3876 @@
         <v>1.50002775836598E-09</v>
       </c>
       <c r="J19">
-        <v>8.337981108292138E-10</v>
+        <v>8.337981108292137E-10</v>
       </c>
       <c r="K19">
-        <v>0.0007188541341899194</v>
+        <v>0.0007188541341899206</v>
       </c>
       <c r="L19">
         <v>0.1326586311882467</v>
       </c>
       <c r="M19">
-        <v>989.267342943576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.1326586311882467</v>
+      </c>
+      <c r="N19">
+        <v>989.2673429435761</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>69.00576385878577</v>
+        <v>69.00576385878574</v>
       </c>
       <c r="B20">
-        <v>8118.682760364534</v>
+        <v>8118.682760364533</v>
       </c>
       <c r="C20">
         <v>14.21470172742937</v>
       </c>
       <c r="D20">
-        <v>37794.71358423867</v>
+        <v>37794.71358423868</v>
       </c>
       <c r="E20">
-        <v>7223.455322160456</v>
+        <v>7223.455322160454</v>
       </c>
       <c r="F20">
         <v>6652.523236788726</v>
       </c>
       <c r="G20">
-        <v>19.34912754371957</v>
+        <v>19.34912754371972</v>
       </c>
       <c r="H20">
-        <v>50.34011745425619</v>
+        <v>50.34011745425633</v>
       </c>
       <c r="I20">
-        <v>1.528185289126569E-09</v>
+        <v>1.528185289126567E-09</v>
       </c>
       <c r="J20">
-        <v>8.690992917494973E-10</v>
+        <v>8.690992917494955E-10</v>
       </c>
       <c r="K20">
-        <v>0.0006741625647497553</v>
+        <v>0.0006741625647497568</v>
       </c>
       <c r="L20">
         <v>0.1327157687670607</v>
       </c>
       <c r="M20">
-        <v>984.2564705197776</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.1327157687670607</v>
+      </c>
+      <c r="N20">
+        <v>984.2564705197766</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>70.07003725926947</v>
+        <v>70.07003725926943</v>
       </c>
       <c r="B21">
-        <v>9832.581030926451</v>
+        <v>9832.581030926385</v>
       </c>
       <c r="C21">
-        <v>16.96674103851326</v>
+        <v>16.96674103851316</v>
       </c>
       <c r="D21">
-        <v>37567.21015838692</v>
+        <v>37567.21015838694</v>
       </c>
       <c r="E21">
-        <v>7170.164084427508</v>
+        <v>7170.164084427506</v>
       </c>
       <c r="F21">
-        <v>6590.904917831459</v>
+        <v>6590.904917831466</v>
       </c>
       <c r="G21">
-        <v>17.99736577721952</v>
+        <v>17.99736577721947</v>
       </c>
       <c r="H21">
-        <v>47.47285240801656</v>
+        <v>47.47285240801659</v>
       </c>
       <c r="I21">
-        <v>1.557300722889991E-09</v>
+        <v>1.557300722889984E-09</v>
       </c>
       <c r="J21">
-        <v>9.065692035918733E-10</v>
+        <v>9.065692035918705E-10</v>
       </c>
       <c r="K21">
-        <v>0.0006317303868250842</v>
+        <v>0.0006317303868250864</v>
       </c>
       <c r="L21">
-        <v>0.1327503495582991</v>
+        <v>0.1327503495582992</v>
       </c>
       <c r="M21">
-        <v>979.0665835602971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.1327503495582992</v>
+      </c>
+      <c r="N21">
+        <v>979.0665835602999</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>71.13431065975315</v>
+        <v>71.13431065975311</v>
       </c>
       <c r="B22">
-        <v>11826.28699702097</v>
+        <v>11826.28699702086</v>
       </c>
       <c r="C22">
-        <v>20.11849677083886</v>
+        <v>20.11849677083867</v>
       </c>
       <c r="D22">
-        <v>37345.59607191341</v>
+        <v>37345.59607191342</v>
       </c>
       <c r="E22">
-        <v>7119.602221096893</v>
+        <v>7119.6022210969</v>
       </c>
       <c r="F22">
-        <v>6532.08734975513</v>
+        <v>6532.087349755137</v>
       </c>
       <c r="G22">
-        <v>16.77645987173905</v>
+        <v>16.77645987173908</v>
       </c>
       <c r="H22">
-        <v>44.87855762807371</v>
+        <v>44.87855762807379</v>
       </c>
       <c r="I22">
-        <v>1.587444326186668E-09</v>
+        <v>1.587444326186665E-09</v>
       </c>
       <c r="J22">
-        <v>9.463271169678313E-10</v>
+        <v>9.463271169678284E-10</v>
       </c>
       <c r="K22">
-        <v>0.0005919416762368376</v>
+        <v>0.0005919416762368401</v>
       </c>
       <c r="L22">
         <v>0.1327594292055838</v>
       </c>
       <c r="M22">
-        <v>973.6443104151194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1327594292055838</v>
+      </c>
+      <c r="N22">
+        <v>973.6443104151203</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>72.19858406023684</v>
+        <v>72.1985840602368</v>
       </c>
       <c r="B23">
-        <v>14131.99454958421</v>
+        <v>14131.99454958415</v>
       </c>
       <c r="C23">
-        <v>23.70846985781951</v>
+        <v>23.70846985781944</v>
       </c>
       <c r="D23">
         <v>37129.37975739784</v>
       </c>
       <c r="E23">
-        <v>7071.474411166448</v>
+        <v>7071.474411166449</v>
       </c>
       <c r="F23">
-        <v>6475.781359788538</v>
+        <v>6475.781359788536</v>
       </c>
       <c r="G23">
-        <v>15.67802711966103</v>
+        <v>15.67802711966108</v>
       </c>
       <c r="H23">
-        <v>42.53639724099556</v>
+        <v>42.53639724099565</v>
       </c>
       <c r="I23">
         <v>1.618688061603421E-09</v>
       </c>
       <c r="J23">
-        <v>9.884919701580873E-10</v>
+        <v>9.884919701580863E-10</v>
       </c>
       <c r="K23">
-        <v>0.0005550148549545901</v>
+        <v>0.0005550148549545905</v>
       </c>
       <c r="L23">
         <v>0.1327410553840848</v>
       </c>
       <c r="M23">
-        <v>967.952873376978</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.1327410553840848</v>
+      </c>
+      <c r="N23">
+        <v>967.9528733769775</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>73.26285746072053</v>
+        <v>73.26285746072048</v>
       </c>
       <c r="B24">
-        <v>16783.93940181017</v>
+        <v>16783.93940180976</v>
       </c>
       <c r="C24">
-        <v>27.77684918467425</v>
+        <v>27.77684918467358</v>
       </c>
       <c r="D24">
-        <v>36918.10406065906</v>
+        <v>36918.10406065907</v>
       </c>
       <c r="E24">
-        <v>7025.506613085165</v>
+        <v>7025.506613085167</v>
       </c>
       <c r="F24">
-        <v>6421.719221455908</v>
+        <v>6421.719221455909</v>
       </c>
       <c r="G24">
-        <v>14.69313255588176</v>
+        <v>14.69313255588169</v>
       </c>
       <c r="H24">
-        <v>40.42628704134312</v>
+        <v>40.42628704134308</v>
       </c>
       <c r="I24">
-        <v>1.651105995224476E-09</v>
+        <v>1.651105995224475E-09</v>
       </c>
       <c r="J24">
-        <v>1.033181398354978E-09</v>
+        <v>1.033181398354975E-09</v>
       </c>
       <c r="K24">
-        <v>0.0005210231709141838</v>
+        <v>0.0005210231709141848</v>
       </c>
       <c r="L24">
         <v>0.1326939733467831</v>
       </c>
       <c r="M24">
-        <v>961.9703761572709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.1326939733467831</v>
+      </c>
+      <c r="N24">
+        <v>961.9703761572722</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>74.32713086120421</v>
+        <v>74.32713086120417</v>
       </c>
       <c r="B25">
-        <v>19818.38770791963</v>
+        <v>19818.38770791943</v>
       </c>
       <c r="C25">
-        <v>32.36546729471218</v>
+        <v>32.36546729471187</v>
       </c>
       <c r="D25">
-        <v>36711.34322322187</v>
+        <v>36711.34322322188</v>
       </c>
       <c r="E25">
-        <v>6981.445208784839</v>
+        <v>6981.445208784845</v>
       </c>
       <c r="F25">
-        <v>6369.653782024237</v>
+        <v>6369.653782024246</v>
       </c>
       <c r="G25">
-        <v>13.81264750471316</v>
+        <v>13.81264750471324</v>
       </c>
       <c r="H25">
-        <v>38.52910844311512</v>
+        <v>38.52910844311529</v>
       </c>
       <c r="I25">
-        <v>1.684774723563613E-09</v>
+        <v>1.684774723563612E-09</v>
       </c>
       <c r="J25">
-        <v>1.080510698209848E-09</v>
+        <v>1.080510698209846E-09</v>
       </c>
       <c r="K25">
-        <v>0.000489923561096087</v>
+        <v>0.0004899235610960889</v>
       </c>
       <c r="L25">
-        <v>0.1326173171343977</v>
+        <v>0.1326173171343978</v>
       </c>
       <c r="M25">
-        <v>955.6879501023985</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.1326173171343978</v>
+      </c>
+      <c r="N25">
+        <v>955.6879501023989</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>75.39140426168791</v>
+        <v>75.39140426168785</v>
       </c>
       <c r="B26">
-        <v>23273.61670686003</v>
+        <v>23273.6167068599</v>
       </c>
       <c r="C26">
-        <v>37.51775693081986</v>
+        <v>37.51775693081969</v>
       </c>
       <c r="D26">
-        <v>36508.70014463437</v>
+        <v>36508.70014463439</v>
       </c>
       <c r="E26">
-        <v>6939.055964358259</v>
+        <v>6939.055964358261</v>
       </c>
       <c r="F26">
-        <v>6319.357407269214</v>
+        <v>6319.357407269215</v>
       </c>
       <c r="G26">
-        <v>13.02751458514585</v>
+        <v>13.02751458514589</v>
       </c>
       <c r="H26">
-        <v>36.82684613384228</v>
+        <v>36.82684613384237</v>
       </c>
       <c r="I26">
-        <v>1.719773820949146E-09</v>
+        <v>1.719773820949144E-09</v>
       </c>
       <c r="J26">
-        <v>1.130591747680949E-09</v>
+        <v>1.130591747680945E-09</v>
       </c>
       <c r="K26">
-        <v>0.0004615880873763079</v>
+        <v>0.0004615880873763098</v>
       </c>
       <c r="L26">
         <v>0.1325103092668138</v>
       </c>
       <c r="M26">
-        <v>949.1077776609094</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1325103092668138</v>
+      </c>
+      <c r="N26">
+        <v>949.1077776609096</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>76.4556776621716</v>
+        <v>76.45567766217154</v>
       </c>
       <c r="B27">
-        <v>27189.88792020218</v>
+        <v>27189.88792020195</v>
       </c>
       <c r="C27">
-        <v>43.27870947020986</v>
+        <v>43.27870947020952</v>
       </c>
       <c r="D27">
-        <v>36309.80389498089</v>
+        <v>36309.80389498091</v>
       </c>
       <c r="E27">
-        <v>6898.12287776434</v>
+        <v>6898.122877764346</v>
       </c>
       <c r="F27">
-        <v>6270.620814144118</v>
+        <v>6270.620814144126</v>
       </c>
       <c r="G27">
-        <v>12.32893845187674</v>
+        <v>12.32893845187672</v>
       </c>
       <c r="H27">
-        <v>35.3026665708813</v>
+        <v>35.30266657088136</v>
       </c>
       <c r="I27">
-        <v>1.756186309030426E-09</v>
+        <v>1.756186309030423E-09</v>
       </c>
       <c r="J27">
-        <v>1.183531905348284E-09</v>
+        <v>1.183531905348281E-09</v>
       </c>
       <c r="K27">
-        <v>0.0004358334983346777</v>
+        <v>0.000435833498334679</v>
       </c>
       <c r="L27">
-        <v>0.1323719882201154</v>
+        <v>0.1323719882201155</v>
       </c>
       <c r="M27">
-        <v>942.2410490580908</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1323719882201155</v>
+      </c>
+      <c r="N27">
+        <v>942.2410490580925</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>77.51995106265528</v>
+        <v>77.51995106265522</v>
       </c>
       <c r="B28">
-        <v>31609.41348108388</v>
+        <v>31609.41348108374</v>
       </c>
       <c r="C28">
-        <v>49.69483624313595</v>
+        <v>49.69483624313578</v>
       </c>
       <c r="D28">
-        <v>36114.30745123141</v>
+        <v>36114.30745123143</v>
       </c>
       <c r="E28">
-        <v>6858.446967522623</v>
+        <v>6858.44696752263</v>
       </c>
       <c r="F28">
-        <v>6223.251845482996</v>
+        <v>6223.251845483</v>
       </c>
       <c r="G28">
-        <v>11.70851810368117</v>
+        <v>11.70851810368118</v>
       </c>
       <c r="H28">
-        <v>33.94095129081659</v>
+        <v>33.94095129081666</v>
       </c>
       <c r="I28">
         <v>1.794099150744584E-09</v>
       </c>
       <c r="J28">
-        <v>1.239432916975075E-09</v>
+        <v>1.239432916975072E-09</v>
       </c>
       <c r="K28">
-        <v>0.0004124462274174026</v>
+        <v>0.0004124462274174037</v>
       </c>
       <c r="L28">
         <v>0.1322009786593334</v>
       </c>
       <c r="M28">
-        <v>935.1059276327921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1322009786593334</v>
+      </c>
+      <c r="N28">
+        <v>935.1059276327924</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>78.58422446313895</v>
+        <v>78.58422446313891</v>
       </c>
       <c r="B29">
-        <v>36576.31620505385</v>
+        <v>36576.31620505392</v>
       </c>
       <c r="C29">
-        <v>56.81413365474747</v>
+        <v>56.81413365474762</v>
       </c>
       <c r="D29">
-        <v>35921.88563397363</v>
+        <v>35921.88563397364</v>
       </c>
       <c r="E29">
-        <v>6819.845043079795</v>
+        <v>6819.845043079804</v>
       </c>
       <c r="F29">
-        <v>6177.07422755546</v>
+        <v>6177.074227555469</v>
       </c>
       <c r="G29">
-        <v>11.158333672017</v>
+        <v>11.15833367201701</v>
       </c>
       <c r="H29">
-        <v>32.72729632463757</v>
+        <v>32.72729632463762</v>
       </c>
       <c r="I29">
-        <v>1.833603771728561E-09</v>
+        <v>1.833603771728559E-09</v>
       </c>
       <c r="J29">
-        <v>1.298389859864574E-09</v>
+        <v>1.29838985986457E-09</v>
       </c>
       <c r="K29">
-        <v>0.0003912017350335007</v>
+        <v>0.0003912017350335015</v>
       </c>
       <c r="L29">
         <v>0.1319953149157564</v>
       </c>
       <c r="M29">
-        <v>927.7256029730208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.1319953149157564</v>
+      </c>
+      <c r="N29">
+        <v>927.7256029730213</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>79.64849786362264</v>
+        <v>79.64849786362258</v>
       </c>
       <c r="B30">
-        <v>42136.584034973</v>
+        <v>42136.58403497229</v>
       </c>
       <c r="C30">
-        <v>64.68605295674558</v>
+        <v>64.68605295674453</v>
       </c>
       <c r="D30">
-        <v>35732.23322363752</v>
+        <v>35732.23322363753</v>
       </c>
       <c r="E30">
-        <v>6782.14848688613</v>
+        <v>6782.148486886132</v>
       </c>
       <c r="F30">
-        <v>6131.92634061511</v>
+        <v>6131.926340615112</v>
       </c>
       <c r="G30">
-        <v>10.67099815389855</v>
+        <v>10.67099815389853</v>
       </c>
       <c r="H30">
-        <v>31.64848677114327</v>
+        <v>31.64848677114325</v>
       </c>
       <c r="I30">
-        <v>1.874796612797397E-09</v>
+        <v>1.874796612797393E-09</v>
       </c>
       <c r="J30">
-        <v>1.360490157222863E-09</v>
+        <v>1.36049015722286E-09</v>
       </c>
       <c r="K30">
-        <v>0.0003718782606521981</v>
+        <v>0.000371878260652199</v>
       </c>
       <c r="L30">
         <v>0.1317523240035562</v>
       </c>
       <c r="M30">
-        <v>920.1265023889692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.1317523240035562</v>
+      </c>
+      <c r="N30">
+        <v>920.1265023889705</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>80.71277126410634</v>
+        <v>80.71277126410627</v>
       </c>
       <c r="B31">
-        <v>48338.01950170661</v>
+        <v>48338.01950170623</v>
       </c>
       <c r="C31">
-        <v>73.36147544470937</v>
+        <v>73.36147544470886</v>
       </c>
       <c r="D31">
-        <v>35545.06323758774</v>
+        <v>35545.06323758775</v>
       </c>
       <c r="E31">
-        <v>6745.202069761433</v>
+        <v>6745.202069761426</v>
       </c>
       <c r="F31">
-        <v>6087.660024097438</v>
+        <v>6087.660024097437</v>
       </c>
       <c r="G31">
-        <v>10.23968251459153</v>
+        <v>10.23968251459157</v>
       </c>
       <c r="H31">
-        <v>30.69245372360438</v>
+        <v>30.69245372360441</v>
       </c>
       <c r="I31">
-        <v>1.917779717750756E-09</v>
+        <v>1.917779717750748E-09</v>
       </c>
       <c r="J31">
-        <v>1.425812695079035E-09</v>
+        <v>1.425812695079029E-09</v>
       </c>
       <c r="K31">
-        <v>0.0003542657248382658</v>
+        <v>0.0003542657248382675</v>
       </c>
       <c r="L31">
-        <v>0.1314685707479193</v>
+        <v>0.1314685707479195</v>
       </c>
       <c r="M31">
-        <v>912.3367146707873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1314685707479195</v>
+      </c>
+      <c r="N31">
+        <v>912.3367146707884</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>81.77704466459001</v>
+        <v>81.77704466458995</v>
       </c>
       <c r="B32">
-        <v>55230.18484168793</v>
+        <v>55230.18484168777</v>
       </c>
       <c r="C32">
-        <v>82.89269379082053</v>
+        <v>82.89269379082035</v>
       </c>
       <c r="D32">
-        <v>35360.10535146254</v>
+        <v>35360.10535146255</v>
       </c>
       <c r="E32">
-        <v>6708.862814473471</v>
+        <v>6708.862814473469</v>
       </c>
       <c r="F32">
-        <v>6044.139431443644</v>
+        <v>6044.139431443642</v>
       </c>
       <c r="G32">
-        <v>9.858120900135251</v>
+        <v>9.858120900135431</v>
       </c>
       <c r="H32">
-        <v>29.84821921637083</v>
+        <v>29.84821921637101</v>
       </c>
       <c r="I32">
         <v>1.96266136142975E-09</v>
       </c>
       <c r="J32">
-        <v>1.494427073194938E-09</v>
+        <v>1.494427073194934E-09</v>
       </c>
       <c r="K32">
-        <v>0.0003381707984568579</v>
+        <v>0.0003381707984568583</v>
       </c>
       <c r="L32">
         <v>0.1311398643549917</v>
       </c>
       <c r="M32">
-        <v>904.3846597700327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1311398643549917</v>
+      </c>
+      <c r="N32">
+        <v>904.3846597700307</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>82.84131806507371</v>
+        <v>82.84131806507365</v>
       </c>
       <c r="B33">
-        <v>62864.34340278869</v>
+        <v>62864.34340278855</v>
       </c>
       <c r="C33">
-        <v>93.33340016229636</v>
+        <v>93.33340016229621</v>
       </c>
       <c r="D33">
-        <v>35177.10444991064</v>
+        <v>35177.10444991065</v>
       </c>
       <c r="E33">
-        <v>6672.998917263829</v>
+        <v>6672.998917263833</v>
       </c>
       <c r="F33">
-        <v>6001.239944319806</v>
+        <v>6001.239944319813</v>
       </c>
       <c r="G33">
-        <v>9.520601314245827</v>
+        <v>9.52060131424575</v>
       </c>
       <c r="H33">
-        <v>29.10583360921239</v>
+        <v>29.10583360921238</v>
       </c>
       <c r="I33">
-        <v>2.009556723642212E-09</v>
+        <v>2.009556723642207E-09</v>
       </c>
       <c r="J33">
-        <v>1.566393018773254E-09</v>
+        <v>1.56639301877325E-09</v>
       </c>
       <c r="K33">
-        <v>0.0003234191691460382</v>
+        <v>0.000323419169146039</v>
       </c>
       <c r="L33">
         <v>0.1307613229440423</v>
       </c>
       <c r="M33">
-        <v>896.2980176496991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1307613229440423</v>
+      </c>
+      <c r="N33">
+        <v>896.2980176497014</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>83.90559146555739</v>
+        <v>83.90559146555732</v>
       </c>
       <c r="B34">
-        <v>71293.39795294938</v>
+        <v>71293.39795294827</v>
       </c>
       <c r="C34">
-        <v>104.7386817255129</v>
+        <v>104.7386817255114</v>
       </c>
       <c r="D34">
-        <v>34995.81929344746</v>
+        <v>34995.81929344748</v>
       </c>
       <c r="E34">
         <v>6637.488733060233</v>
       </c>
       <c r="F34">
-        <v>5958.847151991339</v>
+        <v>5958.847151991343</v>
       </c>
       <c r="G34">
-        <v>9.221945981550355</v>
+        <v>9.221945981550398</v>
       </c>
       <c r="H34">
-        <v>28.45630881327347</v>
+        <v>28.45630881327349</v>
       </c>
       <c r="I34">
-        <v>2.058588615322267E-09</v>
+        <v>2.058588615322261E-09</v>
       </c>
       <c r="J34">
-        <v>1.641759987708237E-09</v>
+        <v>1.641759987708229E-09</v>
       </c>
       <c r="K34">
-        <v>0.0003098559047596125</v>
+        <v>0.0003098559047596138</v>
       </c>
       <c r="L34">
-        <v>0.1303274901902562</v>
+        <v>0.1303274901902563</v>
       </c>
       <c r="M34">
-        <v>888.1029116823102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1303274901902563</v>
+      </c>
+      <c r="N34">
+        <v>888.1029116823103</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>84.96986486604108</v>
+        <v>84.96986486604102</v>
       </c>
       <c r="B35">
-        <v>80571.82648314422</v>
+        <v>80571.82648314354</v>
       </c>
       <c r="C35">
-        <v>117.165024096365</v>
+        <v>117.165024096364</v>
       </c>
       <c r="D35">
-        <v>34816.02128954131</v>
+        <v>34816.02128954133</v>
       </c>
       <c r="E35">
-        <v>6602.219827074082</v>
+        <v>6602.219827074088</v>
       </c>
       <c r="F35">
-        <v>5916.855898562566</v>
+        <v>5916.855898562576</v>
       </c>
       <c r="G35">
-        <v>8.957484697937575</v>
+        <v>8.957484697937609</v>
       </c>
       <c r="H35">
-        <v>27.89154994461686</v>
+        <v>27.89154994461689</v>
       </c>
       <c r="I35">
-        <v>2.109888264108154E-09</v>
+        <v>2.109888264108147E-09</v>
       </c>
       <c r="J35">
-        <v>1.720566972791268E-09</v>
+        <v>1.720566972791262E-09</v>
       </c>
       <c r="K35">
-        <v>0.000297344627869063</v>
+        <v>0.0002973446278690639</v>
       </c>
       <c r="L35">
-        <v>0.1298324964202445</v>
+        <v>0.1298324964202446</v>
       </c>
       <c r="M35">
-        <v>879.82332813933</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1298324964202446</v>
+      </c>
+      <c r="N35">
+        <v>879.8233281393311</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>86.03413826652478</v>
+        <v>86.03413826652469</v>
       </c>
       <c r="B36">
-        <v>90755.61606887136</v>
+        <v>90755.61606886987</v>
       </c>
       <c r="C36">
-        <v>130.6703232704907</v>
+        <v>130.6703232704886</v>
       </c>
       <c r="D36">
-        <v>34637.49335727161</v>
+        <v>34637.49335727163</v>
       </c>
       <c r="E36">
-        <v>6567.088093207003</v>
+        <v>6567.088093207</v>
       </c>
       <c r="F36">
-        <v>5875.169398511958</v>
+        <v>5875.169398511957</v>
       </c>
       <c r="G36">
-        <v>8.723023723397167</v>
+        <v>8.723023723397262</v>
       </c>
       <c r="H36">
-        <v>27.40428733584356</v>
+        <v>27.40428733584366</v>
       </c>
       <c r="I36">
-        <v>2.163596167428361E-09</v>
+        <v>2.163596167428356E-09</v>
       </c>
       <c r="J36">
-        <v>1.802842531955321E-09</v>
+        <v>1.802842531955313E-09</v>
       </c>
       <c r="K36">
-        <v>0.0002857660280992953</v>
+        <v>0.0002857660280992962</v>
       </c>
       <c r="L36">
         <v>0.1292702555070813</v>
       </c>
       <c r="M36">
+        <v>0.1292702555070813</v>
+      </c>
+      <c r="N36">
         <v>871.480744017259</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>87.09841166700845</v>
+        <v>87.09841166700839</v>
       </c>
       <c r="B37">
-        <v>101902.1953239325</v>
+        <v>101902.1953239328</v>
       </c>
       <c r="C37">
-        <v>145.313906554317</v>
+        <v>145.3139065543176</v>
       </c>
       <c r="D37">
-        <v>34460.02887599128</v>
+        <v>34460.02887599129</v>
       </c>
       <c r="E37">
-        <v>6531.99693801809</v>
+        <v>6531.9969380181</v>
       </c>
       <c r="F37">
-        <v>5833.698419280556</v>
+        <v>5833.698419280565</v>
       </c>
       <c r="G37">
-        <v>8.514812172653279</v>
+        <v>8.514812172653285</v>
       </c>
       <c r="H37">
-        <v>26.98801031461203</v>
+        <v>26.98801031461205</v>
       </c>
       <c r="I37">
-        <v>2.219863022202525E-09</v>
+        <v>2.219863022202527E-09</v>
       </c>
       <c r="J37">
-        <v>1.888605042671799E-09</v>
+        <v>1.888605042671798E-09</v>
       </c>
       <c r="K37">
-        <v>0.0002750160767163013</v>
+        <v>0.0002750160767163015</v>
       </c>
       <c r="L37">
-        <v>0.1286346890027075</v>
+        <v>0.1286346890027074</v>
       </c>
       <c r="M37">
-        <v>863.0939304508383</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.1286346890027074</v>
+      </c>
+      <c r="N37">
+        <v>863.0939304508378</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>88.16268506749215</v>
+        <v>88.16268506749206</v>
       </c>
       <c r="B38">
-        <v>114070.3659480811</v>
+        <v>114070.3659480791</v>
       </c>
       <c r="C38">
-        <v>161.1565630210089</v>
+        <v>161.1565630210062</v>
       </c>
       <c r="D38">
-        <v>34283.43070939042</v>
+        <v>34283.43070939043</v>
       </c>
       <c r="E38">
-        <v>6496.856527806729</v>
+        <v>6496.856527806736</v>
       </c>
       <c r="F38">
-        <v>5792.360528477666</v>
+        <v>5792.360528477669</v>
       </c>
       <c r="G38">
-        <v>8.329507378425189</v>
+        <v>8.329507378425246</v>
       </c>
       <c r="H38">
-        <v>26.63690374587651</v>
+        <v>26.63690374587662</v>
       </c>
       <c r="I38">
-        <v>2.278850741412715E-09</v>
+        <v>2.278850741412717E-09</v>
       </c>
       <c r="J38">
-        <v>1.977863181402704E-09</v>
+        <v>1.9778631814027E-09</v>
       </c>
       <c r="K38">
-        <v>0.0002650041796662266</v>
+        <v>0.0002650041796662269</v>
       </c>
       <c r="L38">
         <v>0.1279199702649347</v>
       </c>
       <c r="M38">
-        <v>854.6788975780447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.1279199702649347</v>
+      </c>
+      <c r="N38">
+        <v>854.678897578044</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>89.22695846797582</v>
+        <v>89.22695846797576</v>
       </c>
       <c r="B39">
-        <v>127320.2338371917</v>
+        <v>127320.2338371892</v>
       </c>
       <c r="C39">
-        <v>178.2605840356883</v>
+        <v>178.2605840356848</v>
       </c>
       <c r="D39">
-        <v>34107.51029721366</v>
+        <v>34107.51029721368</v>
       </c>
       <c r="E39">
-        <v>6461.583095536059</v>
+        <v>6461.583095536057</v>
       </c>
       <c r="F39">
-        <v>5751.079402445043</v>
+        <v>5751.079402445044</v>
       </c>
       <c r="G39">
-        <v>8.164140319712434</v>
+        <v>8.164140319712427</v>
       </c>
       <c r="H39">
-        <v>26.34578801211855</v>
+        <v>26.34578801211853</v>
       </c>
       <c r="I39">
-        <v>2.340733569108852E-09</v>
+        <v>2.340733569108842E-09</v>
       </c>
       <c r="J39">
-        <v>2.070616619979595E-09</v>
+        <v>2.070616619979587E-09</v>
       </c>
       <c r="K39">
-        <v>0.0002556514106482647</v>
+        <v>0.0002556514106482655</v>
       </c>
       <c r="L39">
-        <v>0.1271207836861367</v>
+        <v>0.1271207836861369</v>
       </c>
       <c r="M39">
-        <v>846.2489480457729</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1271207836861369</v>
+      </c>
+      <c r="N39">
+        <v>846.2489480457745</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>90.2912318684595</v>
+        <v>90.29123186845943</v>
       </c>
       <c r="B40">
-        <v>141713.1401922883</v>
+        <v>141713.1401922878</v>
       </c>
       <c r="C40">
-        <v>196.689814433838</v>
+        <v>196.6898144338374</v>
       </c>
       <c r="D40">
-        <v>33932.08680763946</v>
+        <v>33932.08680763947</v>
       </c>
       <c r="E40">
         <v>6426.098303776023</v>
       </c>
       <c r="F40">
-        <v>5709.784192384528</v>
+        <v>5709.78419238453</v>
       </c>
       <c r="G40">
-        <v>8.016081905051559</v>
+        <v>8.016081905051573</v>
       </c>
       <c r="H40">
-        <v>26.11006285589429</v>
+        <v>26.1100628558943</v>
       </c>
       <c r="I40">
-        <v>2.405699306909679E-09</v>
+        <v>2.405699306909673E-09</v>
       </c>
       <c r="J40">
-        <v>2.166856924328016E-09</v>
+        <v>2.16685692432801E-09</v>
       </c>
       <c r="K40">
-        <v>0.000246888899830198</v>
+        <v>0.0002468888998301984</v>
       </c>
       <c r="L40">
-        <v>0.1262325967865478</v>
+        <v>0.1262325967865479</v>
       </c>
       <c r="M40">
-        <v>837.8148094689651</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1262325967865479</v>
+      </c>
+      <c r="N40">
+        <v>837.8148094689659</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>91.3555052689432</v>
+        <v>91.35550526894312</v>
       </c>
       <c r="B41">
-        <v>157311.5930327157</v>
+        <v>157311.5930327154</v>
       </c>
       <c r="C41">
-        <v>216.5097149970427</v>
+        <v>216.5097149970424</v>
       </c>
       <c r="D41">
-        <v>33756.98634399929</v>
+        <v>33756.98634399931</v>
       </c>
       <c r="E41">
-        <v>6390.32865951127</v>
+        <v>6390.328659511271</v>
       </c>
       <c r="F41">
-        <v>5668.408943933255</v>
+        <v>5668.408943933253</v>
       </c>
       <c r="G41">
-        <v>7.883010663288418</v>
+        <v>7.883010663288453</v>
       </c>
       <c r="H41">
-        <v>25.92565531775559</v>
+        <v>25.92565531775561</v>
       </c>
       <c r="I41">
-        <v>2.473950666781929E-09</v>
+        <v>2.473950666781926E-09</v>
       </c>
       <c r="J41">
-        <v>2.266568635426674E-09</v>
+        <v>2.266568635426666E-09</v>
       </c>
       <c r="K41">
-        <v>0.000238656410240241</v>
+        <v>0.0002386564102402416</v>
       </c>
       <c r="L41">
-        <v>0.1252519445776905</v>
+        <v>0.1252519445776906</v>
       </c>
       <c r="M41">
-        <v>829.3848202778817</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.1252519445776906</v>
+      </c>
+      <c r="N41">
+        <v>829.3848202778815</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>92.41977866942688</v>
+        <v>92.4197786694268</v>
       </c>
       <c r="B42">
-        <v>174179.1994900608</v>
+        <v>174179.1994900586</v>
       </c>
       <c r="C42">
-        <v>237.7874369536571</v>
+        <v>237.787436953654</v>
       </c>
       <c r="D42">
         <v>33582.04120010709</v>
       </c>
       <c r="E42">
-        <v>6354.204976485573</v>
+        <v>6354.204976485578</v>
       </c>
       <c r="F42">
-        <v>5626.89206591225</v>
+        <v>5626.892065912255</v>
       </c>
       <c r="G42">
-        <v>7.762882209648275</v>
+        <v>7.762882209648253</v>
       </c>
       <c r="H42">
-        <v>25.78897185850223</v>
+        <v>25.78897185850225</v>
       </c>
       <c r="I42">
-        <v>2.545706766865518E-09</v>
+        <v>2.545706766865516E-09</v>
       </c>
       <c r="J42">
-        <v>2.369730508051676E-09</v>
+        <v>2.369730508051669E-09</v>
       </c>
       <c r="K42">
-        <v>0.0002309011067637446</v>
+        <v>0.0002309011067637451</v>
       </c>
       <c r="L42">
-        <v>0.1241767244887869</v>
+        <v>0.124176724488787</v>
       </c>
       <c r="M42">
-        <v>820.9651478749656</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.124176724488787</v>
+      </c>
+      <c r="N42">
+        <v>820.9651478749666</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>93.48405206991058</v>
+        <v>93.48405206991049</v>
       </c>
       <c r="B43">
-        <v>192380.5992338296</v>
+        <v>192380.5992338278</v>
       </c>
       <c r="C43">
-        <v>260.5919093409758</v>
+        <v>260.5919093409736</v>
       </c>
       <c r="D43">
-        <v>33407.08915899189</v>
+        <v>33407.0891589919</v>
       </c>
       <c r="E43">
-        <v>6317.661880695519</v>
+        <v>6317.661880695515</v>
       </c>
       <c r="F43">
-        <v>5585.17584393227</v>
+        <v>5585.175843932269</v>
       </c>
       <c r="G43">
-        <v>7.653900712549132</v>
+        <v>7.653900712549103</v>
       </c>
       <c r="H43">
-        <v>25.69685464836003</v>
+        <v>25.69685464836</v>
       </c>
       <c r="I43">
-        <v>2.621204789410147E-09</v>
+        <v>2.621204789410138E-09</v>
       </c>
       <c r="J43">
-        <v>2.476316879875759E-09</v>
+        <v>2.476316879875747E-09</v>
       </c>
       <c r="K43">
-        <v>0.00022357650708829</v>
+        <v>0.0002235765070882909</v>
       </c>
       <c r="L43">
-        <v>0.1230064946358918</v>
+        <v>0.1230064946358919</v>
       </c>
       <c r="M43">
-        <v>812.5600224214724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1230064946358919</v>
+      </c>
+      <c r="N43">
+        <v>812.5600224214738</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>94.54832547039426</v>
+        <v>94.54832547039418</v>
       </c>
       <c r="B44">
-        <v>211981.3993580065</v>
+        <v>211981.3993580055</v>
       </c>
       <c r="C44">
-        <v>284.9939402028426</v>
+        <v>284.9939402028414</v>
       </c>
       <c r="D44">
-        <v>33231.97283029062</v>
+        <v>33231.97283029063</v>
       </c>
       <c r="E44">
-        <v>6280.637354668386</v>
+        <v>6280.637354668388</v>
       </c>
       <c r="F44">
-        <v>5543.205994581941</v>
+        <v>5543.205994581939</v>
       </c>
       <c r="G44">
-        <v>7.554492478322389</v>
+        <v>7.554492478322405</v>
       </c>
       <c r="H44">
-        <v>25.6465419293544</v>
+        <v>25.64654192935444</v>
       </c>
       <c r="I44">
-        <v>2.700701822552866E-09</v>
+        <v>2.700701822552871E-09</v>
       </c>
       <c r="J44">
-        <v>2.586299141936941E-09</v>
+        <v>2.586299141936934E-09</v>
       </c>
       <c r="K44">
-        <v>0.0002166415960502818</v>
+        <v>0.0002166415960502822</v>
       </c>
       <c r="L44">
         <v>0.1217427576314462</v>
       </c>
       <c r="M44">
-        <v>804.1719735957112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1217427576314462</v>
+      </c>
+      <c r="N44">
+        <v>804.1719735957104</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>95.61259887087795</v>
+        <v>95.61259887087786</v>
       </c>
       <c r="B45">
-        <v>233048.1110402101</v>
+        <v>233048.1110402071</v>
       </c>
       <c r="C45">
-        <v>311.0663327658734</v>
+        <v>311.0663327658696</v>
       </c>
       <c r="D45">
-        <v>33056.53902196533</v>
+        <v>33056.53902196536</v>
       </c>
       <c r="E45">
-        <v>6243.07231623659</v>
+        <v>6243.072316236593</v>
       </c>
       <c r="F45">
-        <v>5500.931256020564</v>
+        <v>5500.931256020569</v>
       </c>
       <c r="G45">
-        <v>7.463281689879281</v>
+        <v>7.463281689879348</v>
       </c>
       <c r="H45">
-        <v>25.63563230457665</v>
+        <v>25.63563230457672</v>
       </c>
       <c r="I45">
-        <v>2.784476910765714E-09</v>
+        <v>2.784476910765705E-09</v>
       </c>
       <c r="J45">
-        <v>2.699647281326629E-09</v>
+        <v>2.699647281326618E-09</v>
       </c>
       <c r="K45">
-        <v>0.0002100600818413607</v>
+        <v>0.0002100600818413613</v>
       </c>
       <c r="L45">
-        <v>0.1203891978305976</v>
+        <v>0.1203891978305977</v>
       </c>
       <c r="M45">
-        <v>795.802061153982</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.1203891978305977</v>
+      </c>
+      <c r="N45">
+        <v>795.8020611539824</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>96.67687227136163</v>
+        <v>96.67687227136155</v>
       </c>
       <c r="B46">
-        <v>255648.0882727578</v>
+        <v>255648.0882727568</v>
       </c>
       <c r="C46">
-        <v>338.8840179424748</v>
+        <v>338.8840179424736</v>
       </c>
       <c r="D46">
-        <v>32880.63814237148</v>
+        <v>32880.63814237149</v>
       </c>
       <c r="E46">
-        <v>6204.910227630605</v>
+        <v>6204.91022763061</v>
       </c>
       <c r="F46">
-        <v>5458.303010928751</v>
+        <v>5458.30301092876</v>
       </c>
       <c r="G46">
-        <v>7.379068275808406</v>
+        <v>7.37906827580844</v>
       </c>
       <c r="H46">
-        <v>25.66205277415572</v>
+        <v>25.66205277415574</v>
       </c>
       <c r="I46">
-        <v>2.872833342415234E-09</v>
+        <v>2.872833342415226E-09</v>
       </c>
       <c r="J46">
-        <v>2.816331468053238E-09</v>
+        <v>2.816331468053231E-09</v>
       </c>
       <c r="K46">
-        <v>0.0002037997724744369</v>
+        <v>0.0002037997724744374</v>
       </c>
       <c r="L46">
-        <v>0.1189518259628207</v>
+        <v>0.1189518259628208</v>
       </c>
       <c r="M46">
-        <v>787.450093025178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1189518259628208</v>
+      </c>
+      <c r="N46">
+        <v>787.4500930251785</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>97.74114567184532</v>
+        <v>97.74114567184523</v>
       </c>
       <c r="B47">
-        <v>279849.4689580785</v>
+        <v>279849.4689580778</v>
       </c>
       <c r="C47">
-        <v>368.5242047541113</v>
+        <v>368.5242047541107</v>
       </c>
       <c r="D47">
-        <v>32704.12362902122</v>
+        <v>32704.12362902124</v>
       </c>
       <c r="E47">
-        <v>6166.096730841575</v>
+        <v>6166.096730841577</v>
       </c>
       <c r="F47">
-        <v>5415.274937920467</v>
+        <v>5415.274937920472</v>
       </c>
       <c r="G47">
-        <v>7.300807843817736</v>
+        <v>7.300807843817765</v>
       </c>
       <c r="H47">
-        <v>25.72403031846314</v>
+        <v>25.72403031846311</v>
       </c>
       <c r="I47">
-        <v>2.966101207099171E-09</v>
+        <v>2.966101207099158E-09</v>
       </c>
       <c r="J47">
-        <v>2.936323660227812E-09</v>
+        <v>2.9363236602278E-09</v>
       </c>
       <c r="K47">
-        <v>0.0001978320524684923</v>
+        <v>0.0001978320524684926</v>
       </c>
       <c r="L47">
-        <v>0.1174389779444946</v>
+        <v>0.1174389779444947</v>
       </c>
       <c r="M47">
-        <v>779.1148269908897</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1174389779444947</v>
+      </c>
+      <c r="N47">
+        <v>779.1148269908904</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>98.80541907232902</v>
+        <v>98.80541907232892</v>
       </c>
       <c r="B48">
-        <v>305721.1186601513</v>
+        <v>305721.1186601506</v>
       </c>
       <c r="C48">
-        <v>400.0665505592293</v>
+        <v>400.0665505592287</v>
       </c>
       <c r="D48">
-        <v>32526.85140066718</v>
+        <v>32526.85140066719</v>
       </c>
       <c r="E48">
-        <v>6126.579305338295</v>
+        <v>6126.579305338293</v>
       </c>
       <c r="F48">
-        <v>5371.802687675475</v>
+        <v>5371.802687675474</v>
       </c>
       <c r="G48">
-        <v>7.227593583185083</v>
+        <v>7.2275935831851</v>
       </c>
       <c r="H48">
-        <v>25.82006682115647</v>
+        <v>25.82006682115644</v>
       </c>
       <c r="I48">
-        <v>3.064640260373835E-09</v>
+        <v>3.064640260373828E-09</v>
       </c>
       <c r="J48">
-        <v>3.05959920476117E-09</v>
+        <v>3.059599204761158E-09</v>
       </c>
       <c r="K48">
-        <v>0.0001921314420369968</v>
+        <v>0.000192131442036997</v>
       </c>
       <c r="L48">
-        <v>0.1158611211365755</v>
+        <v>0.1158611211365757</v>
       </c>
       <c r="M48">
-        <v>770.7941537947344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.1158611211365757</v>
+      </c>
+      <c r="N48">
+        <v>770.7941537947346</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>99.86969247281269</v>
+        <v>99.8696924728126</v>
       </c>
       <c r="B49">
-        <v>333332.5773092945</v>
+        <v>333332.5773092912</v>
       </c>
       <c r="C49">
-        <v>433.5933533126664</v>
+        <v>433.5933533126623</v>
       </c>
       <c r="D49">
-        <v>32348.67932957913</v>
+        <v>32348.67932957914</v>
       </c>
       <c r="E49">
-        <v>6086.306944355327</v>
+        <v>6086.306944355343</v>
       </c>
       <c r="F49">
-        <v>5327.84358020442</v>
+        <v>5327.843580204435</v>
       </c>
       <c r="G49">
-        <v>7.158640021910458</v>
+        <v>7.158640021910439</v>
       </c>
       <c r="H49">
-        <v>25.94891712549588</v>
+        <v>25.94891712549584</v>
       </c>
       <c r="I49">
-        <v>3.168843139299632E-09</v>
+        <v>3.168843139299624E-09</v>
       </c>
       <c r="J49">
-        <v>3.186138414407314E-09</v>
+        <v>3.186138414407299E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001866752236319728</v>
+        <v>0.0001866752236319732</v>
       </c>
       <c r="L49">
-        <v>0.1142304452197616</v>
+        <v>0.1142304452197618</v>
       </c>
       <c r="M49">
-        <v>762.4852608591194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.1142304452197618</v>
+      </c>
+      <c r="N49">
+        <v>762.4852608591203</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>100.9339658732964</v>
+        <v>100.9339658732963</v>
       </c>
       <c r="B50">
-        <v>362754.0091703393</v>
+        <v>362754.009170335</v>
       </c>
       <c r="C50">
-        <v>469.1897684845687</v>
+        <v>469.1897684845631</v>
       </c>
       <c r="D50">
-        <v>32169.46673110325</v>
+        <v>32169.46673110326</v>
       </c>
       <c r="E50">
-        <v>6045.229846091092</v>
+        <v>6045.229846091097</v>
       </c>
       <c r="F50">
-        <v>5283.356319801427</v>
+        <v>5283.356319801433</v>
       </c>
       <c r="G50">
-        <v>7.09326851323548</v>
+        <v>7.093268513235497</v>
       </c>
       <c r="H50">
         <v>26.1095700250045</v>
       </c>
       <c r="I50">
-        <v>3.279138979082819E-09</v>
+        <v>3.279138979082808E-09</v>
       </c>
       <c r="J50">
-        <v>3.315928105986178E-09</v>
+        <v>3.315928105986166E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001814431232006027</v>
+        <v>0.0001814431232006031</v>
       </c>
       <c r="L50">
-        <v>0.1125602536755384</v>
+        <v>0.1125602536755385</v>
       </c>
       <c r="M50">
-        <v>754.1847767413664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1125602536755385</v>
+      </c>
+      <c r="N50">
+        <v>754.184776741367</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>101.9982392737801</v>
+        <v>101.99823927378</v>
       </c>
       <c r="B51">
-        <v>394056.1564043213</v>
+        <v>394056.1564043208</v>
       </c>
       <c r="C51">
-        <v>506.9440537346364</v>
+        <v>506.9440537346363</v>
       </c>
       <c r="D51">
-        <v>31989.0738677841</v>
+        <v>31989.07386778413</v>
       </c>
       <c r="E51">
-        <v>6003.299116262658</v>
+        <v>6003.299116262664</v>
       </c>
       <c r="F51">
-        <v>5238.300724366669</v>
+        <v>5238.300724366678</v>
       </c>
       <c r="G51">
-        <v>7.030894321133264</v>
+        <v>7.030894321133287</v>
       </c>
       <c r="H51">
         <v>26.30123200240984</v>
       </c>
       <c r="I51">
-        <v>3.395997489185964E-09</v>
+        <v>3.395997489185947E-09</v>
       </c>
       <c r="J51">
-        <v>3.448963088740736E-09</v>
+        <v>3.44896308874072E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001764170357943296</v>
+        <v>0.0001764170357943303</v>
       </c>
       <c r="L51">
-        <v>0.1108642156995427</v>
+        <v>0.110864215699543</v>
       </c>
       <c r="M51">
-        <v>745.8888971100382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.110864215699543</v>
+      </c>
+      <c r="N51">
+        <v>745.8888971100394</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>103.0625126742637</v>
       </c>
       <c r="B52">
-        <v>427310.2965813922</v>
+        <v>427310.2965813911</v>
       </c>
       <c r="C52">
-        <v>546.9478449806527</v>
+        <v>546.9478449806517</v>
       </c>
       <c r="D52">
-        <v>31807.36146549515</v>
+        <v>31807.36146549517</v>
       </c>
       <c r="E52">
-        <v>5960.466478556509</v>
+        <v>5960.466478556502</v>
       </c>
       <c r="F52">
-        <v>5192.637465891429</v>
+        <v>5192.637465891423</v>
       </c>
       <c r="G52">
-        <v>6.971015173780358</v>
+        <v>6.971015173780296</v>
       </c>
       <c r="H52">
-        <v>26.52331354782262</v>
+        <v>26.52331354782257</v>
       </c>
       <c r="I52">
-        <v>3.519933556876059E-09</v>
+        <v>3.519933556876049E-09</v>
       </c>
       <c r="J52">
-        <v>3.585247595833991E-09</v>
+        <v>3.58524759583398E-09</v>
       </c>
       <c r="K52">
-        <v>0.0001715807871628137</v>
+        <v>0.0001715807871628141</v>
       </c>
       <c r="L52">
-        <v>0.1091555729389359</v>
+        <v>0.109155572938936</v>
       </c>
       <c r="M52">
-        <v>737.593493433734</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.109155572938936</v>
+      </c>
+      <c r="N52">
+        <v>737.5934934337356</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>104.1267860747474</v>
+        <v>104.1267860747473</v>
       </c>
       <c r="B53">
-        <v>462588.2045385299</v>
+        <v>462588.2045385326</v>
       </c>
       <c r="C53">
-        <v>589.2964681298696</v>
+        <v>589.2964681298744</v>
       </c>
       <c r="D53">
-        <v>31624.19023916673</v>
+        <v>31624.19023916675</v>
       </c>
       <c r="E53">
-        <v>5916.68398958681</v>
+        <v>5916.683989586815</v>
       </c>
       <c r="F53">
-        <v>5146.32781898621</v>
+        <v>5146.32781898622</v>
       </c>
       <c r="G53">
-        <v>6.913201156674761</v>
+        <v>6.913201156674778</v>
       </c>
       <c r="H53">
-        <v>26.77541790748844</v>
+        <v>26.7754179074884</v>
       </c>
       <c r="I53">
-        <v>3.651512457592506E-09</v>
+        <v>3.651512457592482E-09</v>
       </c>
       <c r="J53">
-        <v>3.724796655815181E-09</v>
+        <v>3.724796655815162E-09</v>
       </c>
       <c r="K53">
-        <v>0.0001669199246521988</v>
+        <v>0.0001669199246521994</v>
       </c>
       <c r="L53">
-        <v>0.1074464081750432</v>
+        <v>0.1074464081750433</v>
       </c>
       <c r="M53">
-        <v>729.2942058070551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1074464081750433</v>
+      </c>
+      <c r="N53">
+        <v>729.2942058070565</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>105.1910594752311</v>
+        <v>105.191059475231</v>
       </c>
       <c r="B54">
-        <v>499962.1190198404</v>
+        <v>499962.1190198383</v>
       </c>
       <c r="C54">
-        <v>634.0892914695492</v>
+        <v>634.0892914695468</v>
       </c>
       <c r="D54">
-        <v>31439.4204258221</v>
+        <v>31439.42042582211</v>
       </c>
       <c r="E54">
-        <v>5871.903755025784</v>
+        <v>5871.903755025793</v>
       </c>
       <c r="F54">
-        <v>5099.333414398622</v>
+        <v>5099.333414398629</v>
       </c>
       <c r="G54">
-        <v>6.85708582202079</v>
+        <v>6.857085822020771</v>
       </c>
       <c r="H54">
-        <v>27.05733213774116</v>
+        <v>27.05733213774111</v>
       </c>
       <c r="I54">
-        <v>3.79135576513987E-09</v>
+        <v>3.791355765139862E-09</v>
       </c>
       <c r="J54">
-        <v>3.86763740437222E-09</v>
+        <v>3.867637404372208E-09</v>
       </c>
       <c r="K54">
-        <v>0.0001624215321244669</v>
+        <v>0.0001624215321244673</v>
       </c>
       <c r="L54">
-        <v>0.1057470691976507</v>
+        <v>0.1057470691976508</v>
       </c>
       <c r="M54">
-        <v>720.986521439832</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.1057470691976508</v>
+      </c>
+      <c r="N54">
+        <v>720.9865214398326</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>106.2553328757148</v>
+        <v>106.2553328757147</v>
       </c>
       <c r="B55">
-        <v>539504.7145895506</v>
+        <v>539504.7145895492</v>
       </c>
       <c r="C55">
-        <v>681.4301245518576</v>
+        <v>681.4301245518567</v>
       </c>
       <c r="D55">
-        <v>31252.91132273191</v>
+        <v>31252.91132273194</v>
       </c>
       <c r="E55">
         <v>5826.077643603561</v>
       </c>
       <c r="F55">
-        <v>5051.615994509654</v>
+        <v>5051.615994509655</v>
       </c>
       <c r="G55">
-        <v>6.80235839750376</v>
+        <v>6.802358397503759</v>
       </c>
       <c r="H55">
-        <v>27.36902036480158</v>
+        <v>27.36902036480151</v>
       </c>
       <c r="I55">
-        <v>3.940148071032915E-09</v>
+        <v>3.940148071032892E-09</v>
       </c>
       <c r="J55">
-        <v>4.013810339773508E-09</v>
+        <v>4.013810339773487E-09</v>
       </c>
       <c r="K55">
-        <v>0.0001580740647524913</v>
+        <v>0.0001580740647524918</v>
       </c>
       <c r="L55">
-        <v>0.1040658059223982</v>
+        <v>0.1040658059223984</v>
       </c>
       <c r="M55">
-        <v>712.6658403444552</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1040658059223984</v>
+      </c>
+      <c r="N55">
+        <v>712.6658403444565</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>107.3196062761985</v>
+        <v>107.3196062761984</v>
       </c>
       <c r="B56">
-        <v>581289.0793694679</v>
+        <v>581289.0793694715</v>
       </c>
       <c r="C56">
-        <v>731.4276703758725</v>
+        <v>731.4276703758787</v>
       </c>
       <c r="D56">
-        <v>31064.52082857674</v>
+        <v>31064.52082857675</v>
       </c>
       <c r="E56">
-        <v>5779.15699568543</v>
+        <v>5779.156995685428</v>
       </c>
       <c r="F56">
-        <v>5003.137167813979</v>
+        <v>5003.137167813978</v>
       </c>
       <c r="G56">
-        <v>6.748756985079826</v>
+        <v>6.748756985079833</v>
       </c>
       <c r="H56">
-        <v>27.71061917990271</v>
+        <v>27.71061917990267</v>
       </c>
       <c r="I56">
-        <v>4.098644641952456E-09</v>
+        <v>4.098644641952445E-09</v>
       </c>
       <c r="J56">
-        <v>4.163370528058631E-09</v>
+        <v>4.163370528058618E-09</v>
       </c>
       <c r="K56">
-        <v>0.0001538672004596769</v>
+        <v>0.0001538672004596772</v>
       </c>
       <c r="L56">
-        <v>0.1024086347262409</v>
+        <v>0.102408634726241</v>
       </c>
       <c r="M56">
-        <v>704.3275297020452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.102408634726241</v>
+      </c>
+      <c r="N56">
+        <v>704.3275297020455</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>108.3838796766822</v>
+        <v>108.3838796766821</v>
       </c>
       <c r="B57">
-        <v>625388.6992223999</v>
+        <v>625388.6992223973</v>
       </c>
       <c r="C57">
-        <v>784.1960387819836</v>
+        <v>784.1960387819811</v>
       </c>
       <c r="D57">
-        <v>30874.10498556071</v>
+        <v>30874.10498556072</v>
       </c>
       <c r="E57">
         <v>5731.092323124463</v>
       </c>
       <c r="F57">
-        <v>4953.858159380453</v>
+        <v>4953.858159380454</v>
       </c>
       <c r="G57">
-        <v>6.696062648438793</v>
+        <v>6.696062648438767</v>
       </c>
       <c r="H57">
         <v>28.0824351312385</v>
       </c>
       <c r="I57">
-        <v>4.267680167986531E-09</v>
+        <v>4.267680167986527E-09</v>
       </c>
       <c r="J57">
-        <v>4.316388766273909E-09</v>
+        <v>4.316388766273899E-09</v>
       </c>
       <c r="K57">
-        <v>0.0001497917054995901</v>
+        <v>0.0001497917054995903</v>
       </c>
       <c r="L57">
-        <v>0.10077940457966</v>
+        <v>0.1007794045796601</v>
       </c>
       <c r="M57">
-        <v>695.9669682937872</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.1007794045796601</v>
+      </c>
+      <c r="N57">
+        <v>695.9669682937879</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>109.4481530771659</v>
+        <v>109.4481530771658</v>
       </c>
       <c r="B58">
-        <v>671877.4490817321</v>
+        <v>671877.449081725</v>
       </c>
       <c r="C58">
-        <v>839.8553302542243</v>
+        <v>839.8553302542151</v>
       </c>
       <c r="D58">
-        <v>30681.51752044756</v>
+        <v>30681.51752044758</v>
       </c>
       <c r="E58">
-        <v>5681.832997054988</v>
+        <v>5681.832997054997</v>
       </c>
       <c r="F58">
-        <v>4903.739554252804</v>
+        <v>4903.739554252812</v>
       </c>
       <c r="G58">
-        <v>6.644094296065609</v>
+        <v>6.644094296065641</v>
       </c>
       <c r="H58">
         <v>28.48494431008048</v>
       </c>
       <c r="I58">
-        <v>4.448178783102538E-09</v>
+        <v>4.448178783102527E-09</v>
       </c>
       <c r="J58">
-        <v>4.472952713897824E-09</v>
+        <v>4.47295271389781E-09</v>
       </c>
       <c r="K58">
-        <v>0.0001458393122429416</v>
+        <v>0.000145839312242942</v>
       </c>
       <c r="L58">
-        <v>0.09918001405786073</v>
+        <v>0.09918001405786082</v>
       </c>
       <c r="M58">
+        <v>0.09918001405786082</v>
+      </c>
+      <c r="N58">
         <v>687.579582265516</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>110.5124264776495</v>
+        <v>110.5124264776494</v>
       </c>
       <c r="B59">
-        <v>720829.5922146889</v>
+        <v>720829.5922146869</v>
       </c>
       <c r="C59">
-        <v>898.5323007984731</v>
+        <v>898.5323007984713</v>
       </c>
       <c r="D59">
-        <v>30486.60938248497</v>
+        <v>30486.609382485</v>
       </c>
       <c r="E59">
-        <v>5631.326920236389</v>
+        <v>5631.326920236396</v>
       </c>
       <c r="F59">
-        <v>4852.741030684057</v>
+        <v>4852.741030684066</v>
       </c>
       <c r="G59">
-        <v>6.59270427505103</v>
+        <v>6.592704275051037</v>
       </c>
       <c r="H59">
-        <v>28.91879406906205</v>
+        <v>28.91879406906201</v>
       </c>
       <c r="I59">
-        <v>4.641165574368813E-09</v>
+        <v>4.641165574368789E-09</v>
       </c>
       <c r="J59">
-        <v>4.633168004119064E-09</v>
+        <v>4.633168004119047E-09</v>
       </c>
       <c r="K59">
-        <v>0.0001420026076856803</v>
+        <v>0.0001420026076856807</v>
       </c>
       <c r="L59">
-        <v>0.09761071932602799</v>
+        <v>0.09761071932602819</v>
       </c>
       <c r="M59">
-        <v>679.1608733636406</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.09761071932602819</v>
+      </c>
+      <c r="N59">
+        <v>679.1608733636417</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>111.5766998781332</v>
+        <v>111.5766998781331</v>
       </c>
       <c r="B60">
-        <v>772319.7883018021</v>
+        <v>772319.7883018033</v>
       </c>
       <c r="C60">
-        <v>960.3611202570166</v>
+        <v>960.3611202570198</v>
       </c>
       <c r="D60">
-        <v>30289.22827613699</v>
+        <v>30289.22827613702</v>
       </c>
       <c r="E60">
-        <v>5579.520180476835</v>
+        <v>5579.520180476839</v>
       </c>
       <c r="F60">
-        <v>4800.821080000913</v>
+        <v>4800.821080000922</v>
       </c>
       <c r="G60">
-        <v>6.541774598851738</v>
+        <v>6.541774598851699</v>
       </c>
       <c r="H60">
-        <v>29.38480695748064</v>
+        <v>29.3848069574805</v>
       </c>
       <c r="I60">
-        <v>4.847779839406909E-09</v>
+        <v>4.847779839406874E-09</v>
       </c>
       <c r="J60">
-        <v>4.797159347885298E-09</v>
+        <v>4.797159347885277E-09</v>
       </c>
       <c r="K60">
-        <v>0.0001382749315374215</v>
+        <v>0.0001382749315374219</v>
       </c>
       <c r="L60">
-        <v>0.09607047781714731</v>
+        <v>0.09607047781714752</v>
       </c>
       <c r="M60">
-        <v>670.7064406464656</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.09607047781714752</v>
+      </c>
+      <c r="N60">
+        <v>670.7064406464674</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>112.6409732786169</v>
+        <v>112.6409732786168</v>
       </c>
       <c r="B61">
-        <v>826423.1113174232</v>
+        <v>826423.1113174199</v>
       </c>
       <c r="C61">
-        <v>1025.484238366371</v>
+        <v>1025.484238366368</v>
       </c>
       <c r="D61">
-        <v>30089.21818644747</v>
+        <v>30089.21818644749</v>
       </c>
       <c r="E61">
-        <v>5526.356681560511</v>
+        <v>5526.356681560519</v>
       </c>
       <c r="F61">
-        <v>4747.936709762083</v>
+        <v>4747.936709762092</v>
       </c>
       <c r="G61">
         <v>6.491213739888042</v>
       </c>
       <c r="H61">
-        <v>29.88398701329789</v>
+        <v>29.8839870132978</v>
       </c>
       <c r="I61">
-        <v>5.069290404455553E-09</v>
+        <v>5.069290404455523E-09</v>
       </c>
       <c r="J61">
-        <v>4.965071644712923E-09</v>
+        <v>4.9650716447129E-09</v>
       </c>
       <c r="K61">
-        <v>0.0001346502830144308</v>
+        <v>0.0001346502830144312</v>
       </c>
       <c r="L61">
-        <v>0.09455728498975839</v>
+        <v>0.09455728498975856</v>
       </c>
       <c r="M61">
-        <v>662.2119965430804</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.09455728498975856</v>
+      </c>
+      <c r="N61">
+        <v>662.2119965430816</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>113.7052466791006</v>
+        <v>113.7052466791005</v>
       </c>
       <c r="B62">
-        <v>883215.0783054513</v>
+        <v>883215.0783054525</v>
       </c>
       <c r="C62">
-        <v>1094.053375104859</v>
+        <v>1094.053375104862</v>
       </c>
       <c r="D62">
-        <v>29886.41889469263</v>
+        <v>29886.41889469264</v>
       </c>
       <c r="E62">
-        <v>5471.777747967502</v>
+        <v>5471.777747967493</v>
       </c>
       <c r="F62">
-        <v>4694.043126703712</v>
+        <v>4694.043126703705</v>
       </c>
       <c r="G62">
-        <v>6.440953925193883</v>
+        <v>6.440953925193897</v>
       </c>
       <c r="H62">
-        <v>30.41752861682243</v>
+        <v>30.41752861682237</v>
       </c>
       <c r="I62">
-        <v>5.307113380914651E-09</v>
+        <v>5.307113380914628E-09</v>
       </c>
       <c r="J62">
-        <v>5.137071115222585E-09</v>
+        <v>5.137071115222566E-09</v>
       </c>
       <c r="K62">
-        <v>0.0001311232356625348</v>
+        <v>0.0001311232356625352</v>
       </c>
       <c r="L62">
-        <v>0.09306847674974579</v>
+        <v>0.09306847674974587</v>
       </c>
       <c r="M62">
-        <v>653.6733780046667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.09306847674974587</v>
+      </c>
+      <c r="N62">
+        <v>653.6733780046673</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>114.7695200795843</v>
+        <v>114.7695200795842</v>
       </c>
       <c r="B63">
-        <v>942771.6902579332</v>
+        <v>942771.6902579241</v>
       </c>
       <c r="C63">
-        <v>1166.230654450882</v>
+        <v>1166.23065445087</v>
       </c>
       <c r="D63">
-        <v>29680.66548172808</v>
+        <v>29680.6654817281</v>
       </c>
       <c r="E63">
-        <v>5415.721699511914</v>
+        <v>5415.721699511919</v>
       </c>
       <c r="F63">
-        <v>4639.093395751405</v>
+        <v>4639.09339575141</v>
       </c>
       <c r="G63">
         <v>6.39094888015993</v>
       </c>
       <c r="H63">
-        <v>30.98682818994198</v>
+        <v>30.98682818994196</v>
       </c>
       <c r="I63">
-        <v>5.562832819767738E-09</v>
+        <v>5.562832819767715E-09</v>
       </c>
       <c r="J63">
-        <v>5.313346471334532E-09</v>
+        <v>5.313346471334515E-09</v>
       </c>
       <c r="K63">
-        <v>0.0001276888596861065</v>
+        <v>0.0001276888596861068</v>
       </c>
       <c r="L63">
-        <v>0.09160098393619043</v>
+        <v>0.09160098393619052</v>
       </c>
       <c r="M63">
-        <v>645.0865533732194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.09160098393619052</v>
+      </c>
+      <c r="N63">
+        <v>645.0865533732206</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>115.833793480068</v>
+        <v>115.8337934800679</v>
       </c>
       <c r="B64">
-        <v>1005169.486420071</v>
+        <v>1005169.486420067</v>
       </c>
       <c r="C64">
-        <v>1242.18990363104</v>
+        <v>1242.189903631036</v>
       </c>
       <c r="D64">
-        <v>29471.78781606663</v>
+        <v>29471.78781606666</v>
       </c>
       <c r="E64">
         <v>5358.12339183004</v>
       </c>
       <c r="F64">
-        <v>4583.038071117667</v>
+        <v>4583.038071117668</v>
       </c>
       <c r="G64">
-        <v>6.341171971778283</v>
+        <v>6.34117197177831</v>
       </c>
       <c r="H64">
-        <v>31.59349912142422</v>
+        <v>31.59349912142413</v>
       </c>
       <c r="I64">
-        <v>5.838224825376751E-09</v>
+        <v>5.838224825376701E-09</v>
       </c>
       <c r="J64">
-        <v>5.494110141118564E-09</v>
+        <v>5.49411014111854E-09</v>
       </c>
       <c r="K64">
-        <v>0.0001243426513704391</v>
+        <v>0.0001243426513704396</v>
       </c>
       <c r="L64">
-        <v>0.09015153575494042</v>
+        <v>0.09015153575494067</v>
       </c>
       <c r="M64">
-        <v>636.4476254805788</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.09015153575494067</v>
+      </c>
+      <c r="N64">
+        <v>636.4476254805801</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>116.8980668805517</v>
+        <v>116.8980668805516</v>
       </c>
       <c r="B65">
-        <v>1070485.61346138</v>
+        <v>1070485.613461372</v>
       </c>
       <c r="C65">
-        <v>1322.118143332857</v>
+        <v>1322.118143332846</v>
       </c>
       <c r="D65">
-        <v>29259.61002320031</v>
+        <v>29259.61002320034</v>
       </c>
       <c r="E65">
-        <v>5298.91371842722</v>
+        <v>5298.913718427232</v>
       </c>
       <c r="F65">
-        <v>4525.82479519033</v>
+        <v>4525.82479519034</v>
       </c>
       <c r="G65">
-        <v>6.291614708655178</v>
+        <v>6.291614708655179</v>
       </c>
       <c r="H65">
-        <v>32.23939041861226</v>
+        <v>32.2393904186123</v>
       </c>
       <c r="I65">
-        <v>6.135285818777863E-09</v>
+        <v>6.135285818777838E-09</v>
       </c>
       <c r="J65">
-        <v>5.679599566553851E-09</v>
+        <v>5.67959956655383E-09</v>
       </c>
       <c r="K65">
-        <v>0.0001210804692649616</v>
+        <v>0.000121080469264962</v>
       </c>
       <c r="L65">
-        <v>0.08871681579743793</v>
+        <v>0.08871681579743811</v>
       </c>
       <c r="M65">
-        <v>627.7528313869376</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.08871681579743811</v>
+      </c>
+      <c r="N65">
+        <v>627.7528313869389</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>117.9623402810354</v>
+        <v>117.9623402810352</v>
       </c>
       <c r="B66">
-        <v>1138797.911061435</v>
+        <v>1138797.911061436</v>
       </c>
       <c r="C66">
-        <v>1406.217298237519</v>
+        <v>1406.217298237525</v>
       </c>
       <c r="D66">
-        <v>29043.94993195494</v>
+        <v>29043.94993195497</v>
       </c>
       <c r="E66">
-        <v>5238.019069747897</v>
+        <v>5238.019069747887</v>
       </c>
       <c r="F66">
-        <v>4467.397860551884</v>
+        <v>4467.397860551876</v>
       </c>
       <c r="G66">
-        <v>6.242285560423477</v>
+        <v>6.24228556042346</v>
       </c>
       <c r="H66">
-        <v>32.92660973587918</v>
+        <v>32.92660973587908</v>
       </c>
       <c r="I66">
-        <v>6.456265803702266E-09</v>
+        <v>6.456265803702214E-09</v>
       </c>
       <c r="J66">
-        <v>5.870078594034106E-09</v>
+        <v>5.870078594034079E-09</v>
       </c>
       <c r="K66">
-        <v>0.0001178984768506733</v>
+        <v>0.0001178984768506737</v>
       </c>
       <c r="L66">
-        <v>0.08729357781968074</v>
+        <v>0.08729357781968097</v>
       </c>
       <c r="M66">
-        <v>618.9985390726102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.08729357781968097</v>
+      </c>
+      <c r="N66">
+        <v>618.9985390726121</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>119.0266136815191</v>
+        <v>119.0266136815189</v>
       </c>
       <c r="B67">
-        <v>1210185.015555903</v>
+        <v>1210185.01555589</v>
       </c>
       <c r="C67">
-        <v>1494.706161644637</v>
+        <v>1494.706161644618</v>
       </c>
       <c r="D67">
-        <v>28824.61849267234</v>
+        <v>28824.61849267237</v>
       </c>
       <c r="E67">
-        <v>5175.360744478869</v>
+        <v>5175.360744478881</v>
       </c>
       <c r="F67">
-        <v>4407.697730050139</v>
+        <v>4407.697730050152</v>
       </c>
       <c r="G67">
-        <v>6.193209064064521</v>
+        <v>6.193209064064512</v>
       </c>
       <c r="H67">
-        <v>33.65755161976512</v>
+        <v>33.65755161976497</v>
       </c>
       <c r="I67">
-        <v>6.803707696693671E-09</v>
+        <v>6.803707696693602E-09</v>
       </c>
       <c r="J67">
-        <v>6.065838979497464E-09</v>
+        <v>6.065838979497432E-09</v>
       </c>
       <c r="K67">
-        <v>0.0001147930914522613</v>
+        <v>0.0001147930914522617</v>
       </c>
       <c r="L67">
-        <v>0.08587872964204878</v>
+        <v>0.08587872964204901</v>
       </c>
       <c r="M67">
-        <v>610.1812413095607</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.08587872964204901</v>
+      </c>
+      <c r="N67">
+        <v>610.1812413095628</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>120.0908870820027</v>
+        <v>120.0908870820026</v>
       </c>
       <c r="B68">
-        <v>1284726.483360508</v>
+        <v>1284726.483360518</v>
       </c>
       <c r="C68">
-        <v>1587.822652938264</v>
+        <v>1587.822652938283</v>
       </c>
       <c r="D68">
-        <v>28601.41916067169</v>
+        <v>28601.41916067172</v>
       </c>
       <c r="E68">
-        <v>5110.854308061002</v>
+        <v>5110.854308061</v>
       </c>
       <c r="F68">
         <v>4346.660509379568</v>
       </c>
       <c r="G68">
-        <v>6.144425189080025</v>
+        <v>6.144425189079997</v>
       </c>
       <c r="H68">
-        <v>34.43493205206001</v>
+        <v>34.43493205205993</v>
       </c>
       <c r="I68">
-        <v>7.180494050139842E-09</v>
+        <v>7.180494050139803E-09</v>
       </c>
       <c r="J68">
-        <v>6.267202032741826E-09</v>
+        <v>6.2672020327418E-09</v>
       </c>
       <c r="K68">
-        <v>0.0001117609391777776</v>
+        <v>0.000111760939177778</v>
       </c>
       <c r="L68">
-        <v>0.0844693932252987</v>
+        <v>0.08446939322529888</v>
       </c>
       <c r="M68">
-        <v>601.2975468596945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.08446939322529888</v>
+      </c>
+      <c r="N68">
+        <v>601.2975468596958</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>121.1551604824864</v>
+        <v>121.1551604824863</v>
       </c>
       <c r="B69">
-        <v>1362502.935923263</v>
+        <v>1362502.935923269</v>
       </c>
       <c r="C69">
-        <v>1685.826412178586</v>
+        <v>1685.826412178597</v>
       </c>
       <c r="D69">
-        <v>28374.14723663773</v>
+        <v>28374.14723663775</v>
       </c>
       <c r="E69">
-        <v>5044.408893213198</v>
+        <v>5044.40889321319</v>
       </c>
       <c r="F69">
-        <v>4284.217366148961</v>
+        <v>4284.217366148953</v>
       </c>
       <c r="G69">
-        <v>6.095988937414847</v>
+        <v>6.095988937414827</v>
       </c>
       <c r="H69">
-        <v>35.26183068140612</v>
+        <v>35.26183068140604</v>
       </c>
       <c r="I69">
-        <v>7.589902843084448E-09</v>
+        <v>7.589902843084411E-09</v>
       </c>
       <c r="J69">
-        <v>6.474520429025465E-09</v>
+        <v>6.474520429025446E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001087988156796616</v>
+        <v>0.000108798815679662</v>
       </c>
       <c r="L69">
-        <v>0.08306294786951725</v>
+        <v>0.08306294786951737</v>
       </c>
       <c r="M69">
-        <v>592.344169075636</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.08306294786951737</v>
+      </c>
+      <c r="N69">
+        <v>592.344169075637</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>122.2194338829701</v>
+        <v>122.21943388297</v>
       </c>
       <c r="B70">
-        <v>1443596.227923768</v>
+        <v>1443596.227923761</v>
       </c>
       <c r="C70">
-        <v>1789.001782123433</v>
+        <v>1789.001782123426</v>
       </c>
       <c r="D70">
-        <v>28142.58915317735</v>
+        <v>28142.58915317739</v>
       </c>
       <c r="E70">
-        <v>4975.92643724502</v>
+        <v>4975.92643724503</v>
       </c>
       <c r="F70">
-        <v>4220.293888950121</v>
+        <v>4220.293888950133</v>
       </c>
       <c r="G70">
-        <v>6.047970157629828</v>
+        <v>6.047970157629863</v>
       </c>
       <c r="H70">
-        <v>36.14174253303901</v>
+        <v>36.14174253303891</v>
       </c>
       <c r="I70">
-        <v>8.035674465694607E-09</v>
+        <v>8.035674465694532E-09</v>
       </c>
       <c r="J70">
-        <v>6.688180220732834E-09</v>
+        <v>6.6881802207328E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001059036525325306</v>
+        <v>0.0001059036525325311</v>
       </c>
       <c r="L70">
-        <v>0.08165706204778166</v>
+        <v>0.08165706204778189</v>
       </c>
       <c r="M70">
-        <v>583.3179119159461</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.08165706204778189</v>
+      </c>
+      <c r="N70">
+        <v>583.3179119159472</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>123.2837072834538</v>
+        <v>123.2837072834537</v>
       </c>
       <c r="B71">
-        <v>1528089.640308799</v>
+        <v>1528089.640308797</v>
       </c>
       <c r="C71">
-        <v>1897.661234305565</v>
+        <v>1897.661234305567</v>
       </c>
       <c r="D71">
-        <v>27906.52169359532</v>
+        <v>27906.52169359535</v>
       </c>
       <c r="E71">
-        <v>4905.300851172975</v>
+        <v>4905.300851172992</v>
       </c>
       <c r="F71">
-        <v>4154.809379577983</v>
+        <v>4154.809379578</v>
       </c>
       <c r="G71">
-        <v>6.000453556015487</v>
+        <v>6.000453556015507</v>
       </c>
       <c r="H71">
-        <v>37.07864150414112</v>
+        <v>37.07864150414103</v>
       </c>
       <c r="I71">
-        <v>8.522092615492044E-09</v>
+        <v>8.522092615491971E-09</v>
       </c>
       <c r="J71">
-        <v>6.908603088079192E-09</v>
+        <v>6.908603088079163E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001030724890169459</v>
+        <v>0.0001030724890169463</v>
       </c>
       <c r="L71">
-        <v>0.0802497179158696</v>
+        <v>0.08024971791586979</v>
       </c>
       <c r="M71">
-        <v>574.2156533317479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.08024971791586979</v>
+      </c>
+      <c r="N71">
+        <v>574.2156533317493</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>124.3479806839375</v>
+        <v>124.3479806839373</v>
       </c>
       <c r="B72">
-        <v>1616068.099474335</v>
+        <v>1616068.099474317</v>
       </c>
       <c r="C72">
-        <v>2012.149302040697</v>
+        <v>2012.149302040671</v>
       </c>
       <c r="D72">
-        <v>27665.7111247246</v>
+        <v>27665.71112472463</v>
       </c>
       <c r="E72">
-        <v>4832.417116356452</v>
+        <v>4832.417116356457</v>
       </c>
       <c r="F72">
-        <v>4087.676071414059</v>
+        <v>4087.676071414063</v>
       </c>
       <c r="G72">
-        <v>5.953538890258397</v>
+        <v>5.953538890258438</v>
       </c>
       <c r="H72">
-        <v>38.07705862862734</v>
+        <v>38.07705862862719</v>
       </c>
       <c r="I72">
-        <v>9.054082607236629E-09</v>
+        <v>9.054082607236539E-09</v>
       </c>
       <c r="J72">
-        <v>7.13624887602397E-09</v>
+        <v>7.136248876023937E-09</v>
       </c>
       <c r="K72">
-        <v>0.0001003024490848465</v>
+        <v>0.0001003024490848469</v>
       </c>
       <c r="L72">
-        <v>0.07883923118830416</v>
+        <v>0.07883923118830437</v>
       </c>
       <c r="M72">
-        <v>565.0343259349361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.07883923118830437</v>
+      </c>
+      <c r="N72">
+        <v>565.0343259349372</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>125.4122540844212</v>
+        <v>125.412254084421</v>
       </c>
       <c r="B73">
-        <v>1707618.423400377</v>
+        <v>1707618.423400352</v>
       </c>
       <c r="C73">
-        <v>2132.847088736246</v>
+        <v>2132.84708873621</v>
       </c>
       <c r="D73">
-        <v>27419.91222009389</v>
+        <v>27419.9122200939</v>
       </c>
       <c r="E73">
-        <v>4757.150305827799</v>
+        <v>4757.150305827817</v>
       </c>
       <c r="F73">
-        <v>4018.798267277949</v>
+        <v>4018.798267277958</v>
       </c>
       <c r="G73">
-        <v>5.907341333926508</v>
+        <v>5.907341333926563</v>
       </c>
       <c r="H73">
-        <v>39.1421789842969</v>
+        <v>39.14217898429695</v>
       </c>
       <c r="I73">
-        <v>9.637331644145735E-09</v>
+        <v>9.63733164414573E-09</v>
       </c>
       <c r="J73">
-        <v>7.371618475422057E-09</v>
+        <v>7.371618475422038E-09</v>
       </c>
       <c r="K73">
-        <v>9.759072326124823E-05</v>
+        <v>9.759072326124837E-05</v>
       </c>
       <c r="L73">
-        <v>0.07742426790590222</v>
+        <v>0.07742426790590226</v>
       </c>
       <c r="M73">
-        <v>555.7708948206586</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.07742426790590226</v>
+      </c>
+      <c r="N73">
+        <v>555.7708948206579</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>126.4765274849049</v>
+        <v>126.4765274849047</v>
       </c>
       <c r="B74">
-        <v>1802829.594713074</v>
+        <v>1802829.594713054</v>
       </c>
       <c r="C74">
-        <v>2260.177423453011</v>
+        <v>2260.177423452982</v>
       </c>
       <c r="D74">
-        <v>27168.86714241373</v>
+        <v>27168.86714241378</v>
       </c>
       <c r="E74">
-        <v>4679.364530145467</v>
+        <v>4679.364530145489</v>
       </c>
       <c r="F74">
-        <v>3948.07139109533</v>
+        <v>3948.071391095351</v>
       </c>
       <c r="G74">
-        <v>5.861992002575366</v>
+        <v>5.861992002575389</v>
       </c>
       <c r="H74">
-        <v>40.27996229257548</v>
+        <v>40.27996229257536</v>
       </c>
       <c r="I74">
-        <v>1.027843700557258E-08</v>
+        <v>1.027843700557246E-08</v>
       </c>
       <c r="J74">
-        <v>7.615257120843644E-09</v>
+        <v>7.6152571208436E-09</v>
       </c>
       <c r="K74">
-        <v>9.493455520695502E-05</v>
+        <v>9.493455520695551E-05</v>
       </c>
       <c r="L74">
-        <v>0.07600385865743747</v>
+        <v>0.07600385865743772</v>
       </c>
       <c r="M74">
-        <v>546.4223323877117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.07600385865743772</v>
+      </c>
+      <c r="N74">
+        <v>546.4223323877135</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>127.5408008853885</v>
+        <v>127.5408008853884</v>
       </c>
       <c r="B75">
-        <v>1901793.059326976</v>
+        <v>1901793.059326951</v>
       </c>
       <c r="C75">
-        <v>2394.610735411824</v>
+        <v>2394.610735411785</v>
       </c>
       <c r="D75">
-        <v>26912.3041447608</v>
+        <v>26912.30414476081</v>
       </c>
       <c r="E75">
-        <v>4598.911812098006</v>
+        <v>4598.911812098023</v>
       </c>
       <c r="F75">
-        <v>3875.38095002008</v>
+        <v>3875.38095002009</v>
       </c>
       <c r="G75">
-        <v>5.817638634815327</v>
+        <v>5.817638634815389</v>
       </c>
       <c r="H75">
-        <v>41.49729383252049</v>
+        <v>41.49729383252059</v>
       </c>
       <c r="I75">
-        <v>1.09850900177229E-08</v>
+        <v>1.098509001772292E-08</v>
       </c>
       <c r="J75">
-        <v>7.867758196637468E-09</v>
+        <v>7.86775819663745E-09</v>
       </c>
       <c r="K75">
-        <v>9.233123262627102E-05</v>
+        <v>9.233123262627113E-05</v>
       </c>
       <c r="L75">
-        <v>0.07457741005094609</v>
+        <v>0.07457741005094616</v>
       </c>
       <c r="M75">
-        <v>536.9855899787726</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.07457741005094616</v>
+      </c>
+      <c r="N75">
+        <v>536.9855899787717</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>128.6050742858722</v>
+        <v>128.6050742858721</v>
       </c>
       <c r="B76">
-        <v>2004603.047297669</v>
+        <v>2004603.047297649</v>
       </c>
       <c r="C76">
-        <v>2536.671711989732</v>
+        <v>2536.6717119897</v>
       </c>
       <c r="D76">
-        <v>26649.93603719037</v>
+        <v>26649.93603719041</v>
       </c>
       <c r="E76">
-        <v>4515.630901844821</v>
+        <v>4515.630901844835</v>
       </c>
       <c r="F76">
-        <v>3800.601407908149</v>
+        <v>3800.601407908161</v>
       </c>
       <c r="G76">
-        <v>5.774446424420114</v>
+        <v>5.774446424420116</v>
       </c>
       <c r="H76">
-        <v>42.80217440750497</v>
+        <v>42.80217440750459</v>
       </c>
       <c r="I76">
-        <v>1.176630629528741E-08</v>
+        <v>1.176630629528724E-08</v>
       </c>
       <c r="J76">
-        <v>8.129767668339842E-09</v>
+        <v>8.129767668339804E-09</v>
       </c>
       <c r="K76">
-        <v>8.977808214877103E-05</v>
+        <v>8.977808214877143E-05</v>
       </c>
       <c r="L76">
-        <v>0.07314471264368694</v>
+        <v>0.07314471264368716</v>
       </c>
       <c r="M76">
-        <v>527.4575661438262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.07314471264368716</v>
+      </c>
+      <c r="N76">
+        <v>527.4575661438279</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>129.6693476863559</v>
+        <v>129.6693476863558</v>
       </c>
       <c r="B77">
-        <v>2111356.909472857</v>
+        <v>2111356.90947285</v>
       </c>
       <c r="C77">
-        <v>2686.946785948328</v>
+        <v>2686.946785948322</v>
       </c>
       <c r="D77">
-        <v>26381.4583487803</v>
+        <v>26381.45834878032</v>
       </c>
       <c r="E77">
-        <v>4429.346055381521</v>
+        <v>4429.34605538153</v>
       </c>
       <c r="F77">
-        <v>3723.594978336984</v>
+        <v>3723.594978336994</v>
       </c>
       <c r="G77">
-        <v>5.732599002820876</v>
+        <v>5.732599002820884</v>
       </c>
       <c r="H77">
-        <v>44.20396098383029</v>
+        <v>44.20396098383024</v>
       </c>
       <c r="I77">
-        <v>1.263271637427061E-08</v>
+        <v>1.263271637427053E-08</v>
       </c>
       <c r="J77">
-        <v>8.401989290713991E-09</v>
+        <v>8.401989290713961E-09</v>
       </c>
       <c r="K77">
-        <v>8.727246774067878E-05</v>
+        <v>8.727246774067901E-05</v>
       </c>
       <c r="L77">
-        <v>0.07170594411945014</v>
+        <v>0.07170594411945029</v>
       </c>
       <c r="M77">
-        <v>517.8350713066525</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.07170594411945029</v>
+      </c>
+      <c r="N77">
+        <v>517.8350713066535</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>130.7336210868396</v>
+        <v>130.7336210868394</v>
       </c>
       <c r="B78">
-        <v>2222155.459040714</v>
+        <v>2222155.459040717</v>
       </c>
       <c r="C78">
-        <v>2846.092460005057</v>
+        <v>2846.092460005074</v>
       </c>
       <c r="D78">
-        <v>26106.54709283734</v>
+        <v>26106.5470928374</v>
       </c>
       <c r="E78">
-        <v>4339.865816272443</v>
+        <v>4339.865816272456</v>
       </c>
       <c r="F78">
-        <v>3644.210357181022</v>
+        <v>3644.21035718104</v>
       </c>
       <c r="G78">
-        <v>5.692299575542547</v>
+        <v>5.692299575542544</v>
       </c>
       <c r="H78">
-        <v>45.71367358758985</v>
+        <v>45.71367358758949</v>
       </c>
       <c r="I78">
-        <v>1.35969359470403E-08</v>
+        <v>1.359693594704007E-08</v>
       </c>
       <c r="J78">
-        <v>8.685190789745425E-09</v>
+        <v>8.685190789745365E-09</v>
       </c>
       <c r="K78">
-        <v>8.481179210325062E-05</v>
+        <v>8.481179210325115E-05</v>
       </c>
       <c r="L78">
-        <v>0.0702616662365462</v>
+        <v>0.07026166623654653</v>
       </c>
       <c r="M78">
-        <v>508.1147885693846</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.07026166623654653</v>
+      </c>
+      <c r="N78">
+        <v>508.114788569387</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>131.7978944873233</v>
+        <v>131.7978944873231</v>
       </c>
       <c r="B79">
-        <v>2337103.300552009</v>
+        <v>2337103.300552035</v>
       </c>
       <c r="C79">
-        <v>3014.84440989371</v>
+        <v>3014.844409893773</v>
       </c>
       <c r="D79">
-        <v>25824.85601307693</v>
+        <v>25824.85601307699</v>
       </c>
       <c r="E79">
-        <v>4246.981865560278</v>
+        <v>4246.981865560262</v>
       </c>
       <c r="F79">
-        <v>3562.281433093711</v>
+        <v>3562.281433093701</v>
       </c>
       <c r="G79">
-        <v>5.653772221982883</v>
+        <v>5.653772221982872</v>
       </c>
       <c r="H79">
-        <v>47.34438958162906</v>
+        <v>47.34438958162861</v>
       </c>
       <c r="I79">
-        <v>1.46740421334862E-08</v>
+        <v>1.467404213348596E-08</v>
       </c>
       <c r="J79">
-        <v>8.98021127838467E-09</v>
+        <v>8.980211278384614E-09</v>
       </c>
       <c r="K79">
-        <v>8.239350038502837E-05</v>
+        <v>8.239350038502886E-05</v>
       </c>
       <c r="L79">
-        <v>0.06881281395068758</v>
+        <v>0.06881281395068788</v>
       </c>
       <c r="M79">
-        <v>498.2932302961487</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.06881281395068788</v>
+      </c>
+      <c r="N79">
+        <v>498.2932302961508</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>132.862167887807</v>
+        <v>132.8621678878068</v>
       </c>
       <c r="B80">
-        <v>2456309.119657533</v>
+        <v>2456309.119657517</v>
       </c>
       <c r="C80">
-        <v>3194.027196038041</v>
+        <v>3194.027196038017</v>
       </c>
       <c r="D80">
-        <v>25536.01314788794</v>
+        <v>25536.01314788799</v>
       </c>
       <c r="E80">
-        <v>4150.46804009585</v>
+        <v>4150.468040095863</v>
       </c>
       <c r="F80">
-        <v>3477.626041610245</v>
+        <v>3477.626041610259</v>
       </c>
       <c r="G80">
-        <v>5.617263376410025</v>
+        <v>5.617263376410031</v>
       </c>
       <c r="H80">
-        <v>49.11175428394595</v>
+        <v>49.11175428394572</v>
       </c>
       <c r="I80">
-        <v>1.588219260941656E-08</v>
+        <v>1.588219260941637E-08</v>
       </c>
       <c r="J80">
-        <v>9.287970251389283E-09</v>
+        <v>9.287970251389226E-09</v>
       </c>
       <c r="K80">
-        <v>8.001508536140247E-05</v>
+        <v>8.001508536140288E-05</v>
       </c>
       <c r="L80">
-        <v>0.06736067513443969</v>
+        <v>0.06736067513443995</v>
       </c>
       <c r="M80">
-        <v>488.3666899246879</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.06736067513443995</v>
+      </c>
+      <c r="N80">
+        <v>488.3666899246895</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>133.9264412882906</v>
+        <v>133.9264412882905</v>
       </c>
       <c r="B81">
-        <v>2579885.893687295</v>
+        <v>2579885.893687244</v>
       </c>
       <c r="C81">
-        <v>3384.564239592097</v>
+        <v>3384.564239591991</v>
       </c>
       <c r="D81">
-        <v>25239.61649360911</v>
+        <v>25239.61649360914</v>
       </c>
       <c r="E81">
-        <v>4050.079667418801</v>
+        <v>4050.07966741883</v>
       </c>
       <c r="F81">
-        <v>3390.044867713048</v>
+        <v>3390.044867713066</v>
       </c>
       <c r="G81">
-        <v>5.583043520736384</v>
+        <v>5.58304352073635</v>
       </c>
       <c r="H81">
-        <v>51.03464817520968</v>
+        <v>51.03464817520936</v>
       </c>
       <c r="I81">
-        <v>1.724343957479027E-08</v>
+        <v>1.724343957479011E-08</v>
       </c>
       <c r="J81">
-        <v>9.60947862316453E-09</v>
+        <v>9.609478623164497E-09</v>
       </c>
       <c r="K81">
-        <v>7.767409300455022E-05</v>
+        <v>7.767409300455042E-05</v>
       </c>
       <c r="L81">
-        <v>0.06590685945390748</v>
+        <v>0.06590685945390762</v>
       </c>
       <c r="M81">
-        <v>478.3311880850388</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.06590685945390762</v>
+      </c>
+      <c r="N81">
+        <v>478.3311880850401</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>134.9907146887743</v>
+        <v>134.9907146887742</v>
       </c>
       <c r="B82">
-        <v>2707950.96517405</v>
+        <v>2707950.96517407</v>
       </c>
       <c r="C82">
-        <v>3587.487458313526</v>
+        <v>3587.487458313589</v>
       </c>
       <c r="D82">
-        <v>24935.22846884869</v>
+        <v>24935.22846884874</v>
       </c>
       <c r="E82">
-        <v>3945.553426311508</v>
+        <v>3945.553426311489</v>
       </c>
       <c r="F82">
-        <v>3299.320654727828</v>
+        <v>3299.320654727817</v>
       </c>
       <c r="G82">
-        <v>5.551409138914334</v>
+        <v>5.551409138914351</v>
       </c>
       <c r="H82">
-        <v>53.13606748811851</v>
+        <v>53.13606748811787</v>
       </c>
       <c r="I82">
-        <v>1.878481304058456E-08</v>
+        <v>1.878481304058421E-08</v>
       </c>
       <c r="J82">
-        <v>9.945852439032257E-09</v>
+        <v>9.945852439032196E-09</v>
       </c>
       <c r="K82">
-        <v>7.536812705983513E-05</v>
+        <v>7.53681270598355E-05</v>
       </c>
       <c r="L82">
-        <v>0.06445325519792318</v>
+        <v>0.06445325519792341</v>
       </c>
       <c r="M82">
-        <v>468.1824114289971</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.06445325519792341</v>
+      </c>
+      <c r="N82">
+        <v>468.1824114289988</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>136.054988089258</v>
+        <v>136.0549880892579</v>
       </c>
       <c r="B83">
-        <v>2840625.896392335</v>
+        <v>2840625.896392301</v>
       </c>
       <c r="C83">
-        <v>3803.94559127612</v>
+        <v>3803.945591276053</v>
       </c>
       <c r="D83">
-        <v>24622.36876905751</v>
+        <v>24622.36876905755</v>
       </c>
       <c r="E83">
-        <v>3836.608012173965</v>
+        <v>3836.608012173997</v>
       </c>
       <c r="F83">
-        <v>3205.217943826674</v>
+        <v>3205.217943826699</v>
       </c>
       <c r="G83">
-        <v>5.522685012483056</v>
+        <v>5.52268501248307</v>
       </c>
       <c r="H83">
-        <v>55.44429970855171</v>
+        <v>55.44429970855166</v>
       </c>
       <c r="I83">
-        <v>2.053978190413612E-08</v>
+        <v>2.053978190413593E-08</v>
       </c>
       <c r="J83">
-        <v>1.029833012799708E-08</v>
+        <v>1.029833012799703E-08</v>
       </c>
       <c r="K83">
-        <v>7.309485083307555E-05</v>
+        <v>7.309485083307588E-05</v>
       </c>
       <c r="L83">
-        <v>0.06300197314309659</v>
+        <v>0.0630019731430968</v>
       </c>
       <c r="M83">
-        <v>457.9156413938735</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.0630019731430968</v>
+      </c>
+      <c r="N83">
+        <v>457.9156413938748</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>137.1192614897417</v>
+        <v>137.1192614897416</v>
       </c>
       <c r="B84">
         <v>2978035.992325805</v>
       </c>
       <c r="C84">
-        <v>4035.209765476017</v>
+        <v>4035.209765476034</v>
       </c>
       <c r="D84">
-        <v>24300.50503627333</v>
+        <v>24300.50503627339</v>
       </c>
       <c r="E84">
-        <v>3722.94595094602</v>
+        <v>3722.945950946015</v>
       </c>
       <c r="F84">
-        <v>3107.483640733867</v>
+        <v>3107.483640733864</v>
       </c>
       <c r="G84">
-        <v>5.497226982855929</v>
+        <v>5.497226982855931</v>
       </c>
       <c r="H84">
-        <v>57.99451330454418</v>
+        <v>57.99451330454382</v>
       </c>
       <c r="I84">
-        <v>2.255025368573907E-08</v>
+        <v>2.255025368573867E-08</v>
       </c>
       <c r="J84">
-        <v>1.066829451010263E-08</v>
+        <v>1.066829451010256E-08</v>
       </c>
       <c r="K84">
-        <v>7.085198383578575E-05</v>
+        <v>7.085198383578618E-05</v>
       </c>
       <c r="L84">
-        <v>0.06155527681655656</v>
+        <v>0.06155527681655684</v>
       </c>
       <c r="M84">
-        <v>447.5256681368629</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.06155527681655684</v>
+      </c>
+      <c r="N84">
+        <v>447.5256681368652</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>138.1835348902254</v>
+        <v>138.1835348902252</v>
       </c>
       <c r="B85">
-        <v>3120309.342945843</v>
+        <v>3120309.342945819</v>
       </c>
       <c r="C85">
-        <v>4282.674317198074</v>
+        <v>4282.674317198027</v>
       </c>
       <c r="D85">
-        <v>23969.04052559583</v>
+        <v>23969.04052559589</v>
       </c>
       <c r="E85">
-        <v>3604.256929432607</v>
+        <v>3604.256929432632</v>
       </c>
       <c r="F85">
-        <v>3005.848762004584</v>
+        <v>3005.848762004606</v>
       </c>
       <c r="G85">
-        <v>5.475425377765408</v>
+        <v>5.475425377765401</v>
       </c>
       <c r="H85">
-        <v>60.83094007040713</v>
+        <v>60.83094007040617</v>
       </c>
       <c r="I85">
-        <v>2.486935640803846E-08</v>
+        <v>2.486935640803792E-08</v>
       </c>
       <c r="J85">
-        <v>1.105730128159078E-08</v>
+        <v>1.105730128159071E-08</v>
       </c>
       <c r="K85">
-        <v>6.863729017221009E-05</v>
+        <v>6.863729017221048E-05</v>
       </c>
       <c r="L85">
-        <v>0.06011549869883798</v>
+        <v>0.06011549869883823</v>
       </c>
       <c r="M85">
-        <v>437.0066816391068</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.06011549869883823</v>
+      </c>
+      <c r="N85">
+        <v>437.0066816391086</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>139.2478082907091</v>
+        <v>139.2478082907089</v>
       </c>
       <c r="B86">
-        <v>3267575.197100097</v>
+        <v>3267575.197100095</v>
       </c>
       <c r="C86">
-        <v>4547.850430004442</v>
+        <v>4547.850430004461</v>
       </c>
       <c r="D86">
-        <v>23627.29758401873</v>
+        <v>23627.29758401883</v>
       </c>
       <c r="E86">
-        <v>3480.222922363021</v>
+        <v>3480.222922363032</v>
       </c>
       <c r="F86">
-        <v>2900.031701655769</v>
+        <v>2900.031701655786</v>
       </c>
       <c r="G86">
-        <v>5.457709411692968</v>
+        <v>5.457709411692949</v>
       </c>
       <c r="H86">
-        <v>64.00992316580307</v>
+        <v>64.00992316580168</v>
       </c>
       <c r="I86">
-        <v>2.756537958077588E-08</v>
+        <v>2.75653795807748E-08</v>
       </c>
       <c r="J86">
-        <v>1.146711646929935E-08</v>
+        <v>1.146711646929924E-08</v>
       </c>
       <c r="K86">
-        <v>6.644855449358134E-05</v>
+        <v>6.644855449358199E-05</v>
       </c>
       <c r="L86">
-        <v>0.0586849418753532</v>
+        <v>0.05868494187535363</v>
       </c>
       <c r="M86">
-        <v>426.3521268656797</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.05868494187535363</v>
+      </c>
+      <c r="N86">
+        <v>426.3521268656838</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>140.3120816911928</v>
+        <v>140.3120816911926</v>
       </c>
       <c r="B87">
-        <v>3419961.449137351</v>
+        <v>3419961.449137371</v>
       </c>
       <c r="C87">
-        <v>4832.350146509812</v>
+        <v>4832.350146509903</v>
       </c>
       <c r="D87">
-        <v>23274.495199849</v>
+        <v>23274.49519984911</v>
       </c>
       <c r="E87">
-        <v>3350.52507040754</v>
+        <v>3350.525070407524</v>
       </c>
       <c r="F87">
-        <v>2789.743182250448</v>
+        <v>2789.74318225044</v>
       </c>
       <c r="G87">
-        <v>5.444553046173107</v>
+        <v>5.444553046173109</v>
       </c>
       <c r="H87">
-        <v>67.60425991788553</v>
+        <v>67.60425991788451</v>
       </c>
       <c r="I87">
-        <v>3.072747292018421E-08</v>
+        <v>3.072747292018322E-08</v>
       </c>
       <c r="J87">
-        <v>1.189976652386084E-08</v>
+        <v>1.189976652386071E-08</v>
       </c>
       <c r="K87">
-        <v>6.428353985956818E-05</v>
+        <v>6.428353985956881E-05</v>
       </c>
       <c r="L87">
-        <v>0.05726576624595614</v>
+        <v>0.05726576624595656</v>
       </c>
       <c r="M87">
-        <v>415.554502036643</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.05726576624595656</v>
+      </c>
+      <c r="N87">
+        <v>415.5545020366463</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>141.3763550916765</v>
+        <v>141.3763550916763</v>
       </c>
       <c r="B88">
-        <v>3577591.013867793</v>
+        <v>3577591.013867773</v>
       </c>
       <c r="C88">
-        <v>5137.85943288468</v>
+        <v>5137.859432884648</v>
       </c>
       <c r="D88">
-        <v>22909.71802131166</v>
+        <v>22909.71802131174</v>
       </c>
       <c r="E88">
-        <v>3214.851502142853</v>
+        <v>3214.851502142873</v>
       </c>
       <c r="F88">
-        <v>2674.69255028804</v>
+        <v>2674.692550288059</v>
       </c>
       <c r="G88">
-        <v>5.436483071513435</v>
+        <v>5.436483071513433</v>
       </c>
       <c r="H88">
-        <v>71.70953321269778</v>
+        <v>71.70953321269691</v>
       </c>
       <c r="I88">
-        <v>3.447408092386423E-08</v>
+        <v>3.447408092386338E-08</v>
       </c>
       <c r="J88">
-        <v>1.235760656152403E-08</v>
+        <v>1.235760656152393E-08</v>
       </c>
       <c r="K88">
-        <v>6.213991973230861E-05</v>
+        <v>6.213991973230907E-05</v>
       </c>
       <c r="L88">
-        <v>0.05585985744071854</v>
+        <v>0.05585985744071882</v>
       </c>
       <c r="M88">
-        <v>404.6050674056359</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.05585985744071882</v>
+      </c>
+      <c r="N88">
+        <v>404.6050674056382</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>142.4406284921602</v>
+        <v>142.44062849216</v>
       </c>
       <c r="B89">
-        <v>3740576.915680163</v>
+        <v>3740576.915680108</v>
       </c>
       <c r="C89">
-        <v>5466.102305984895</v>
+        <v>5466.10230598473</v>
       </c>
       <c r="D89">
-        <v>22531.87290038495</v>
+        <v>22531.87290038497</v>
       </c>
       <c r="E89">
-        <v>3072.903845891601</v>
+        <v>3072.903845891653</v>
       </c>
       <c r="F89">
-        <v>2554.594017627552</v>
+        <v>2554.594017627593</v>
       </c>
       <c r="G89">
-        <v>5.434090602270697</v>
+        <v>5.434090602270707</v>
       </c>
       <c r="H89">
-        <v>76.45358978084089</v>
+        <v>76.45358978084072</v>
       </c>
       <c r="I89">
-        <v>3.896576356877152E-08</v>
+        <v>3.896576356877133E-08</v>
       </c>
       <c r="J89">
-        <v>1.284341519377628E-08</v>
+        <v>1.284341519377625E-08</v>
       </c>
       <c r="K89">
-        <v>6.00151732709023E-05</v>
+        <v>6.001517327090243E-05</v>
       </c>
       <c r="L89">
-        <v>0.05446867479416333</v>
+        <v>0.0544686747941634</v>
       </c>
       <c r="M89">
-        <v>393.493415087869</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.0544686747941634</v>
+      </c>
+      <c r="N89">
+        <v>393.4934150878694</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>143.5049018926438</v>
+        <v>143.5049018926437</v>
       </c>
       <c r="B90">
-        <v>3909016.060775847</v>
+        <v>3909016.060775785</v>
       </c>
       <c r="C90">
-        <v>5818.804925260728</v>
+        <v>5818.804925260539</v>
       </c>
       <c r="D90">
-        <v>22139.62687539437</v>
+        <v>22139.62687539435</v>
       </c>
       <c r="E90">
-        <v>2924.397825686168</v>
+        <v>2924.397825686215</v>
       </c>
       <c r="F90">
-        <v>2429.169603231862</v>
+        <v>2429.169603231891</v>
       </c>
       <c r="G90">
-        <v>5.438047855644247</v>
+        <v>5.438047855644275</v>
       </c>
       <c r="H90">
-        <v>82.01116965833613</v>
+        <v>82.01116965833813</v>
       </c>
       <c r="I90">
-        <v>4.442529057624364E-08</v>
+        <v>4.442529057624494E-08</v>
       </c>
       <c r="J90">
-        <v>1.336052915989046E-08</v>
+        <v>1.336052915989047E-08</v>
       </c>
       <c r="K90">
-        <v>5.79064285050092E-05</v>
+        <v>5.790642850500905E-05</v>
       </c>
       <c r="L90">
-        <v>0.05309307164036906</v>
+        <v>0.05309307164036899</v>
       </c>
       <c r="M90">
-        <v>382.2068262365594</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.05309307164036899</v>
+      </c>
+      <c r="N90">
+        <v>382.2068262365575</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>144.5691752931275</v>
+        <v>144.5691752931274</v>
       </c>
       <c r="B91">
-        <v>4082981.931843865</v>
+        <v>4082981.931843862</v>
       </c>
       <c r="C91">
-        <v>6197.68009323114</v>
+        <v>6197.680093231183</v>
       </c>
       <c r="D91">
-        <v>21731.31698252789</v>
+        <v>21731.31698252801</v>
       </c>
       <c r="E91">
-        <v>2769.050064433611</v>
+        <v>2769.050064433622</v>
       </c>
       <c r="F91">
-        <v>2298.142783912128</v>
+        <v>2298.142783912144</v>
       </c>
       <c r="G91">
-        <v>5.449133159888952</v>
+        <v>5.449133159888929</v>
       </c>
       <c r="H91">
-        <v>88.62729954389776</v>
+        <v>88.6272995438944</v>
       </c>
       <c r="I91">
-        <v>5.117027626155355E-08</v>
+        <v>5.117027626155052E-08</v>
       </c>
       <c r="J91">
-        <v>1.391303899946872E-08</v>
+        <v>1.391303899946856E-08</v>
       </c>
       <c r="K91">
-        <v>5.581023071365125E-05</v>
+        <v>5.581023071365191E-05</v>
       </c>
       <c r="L91">
-        <v>0.05173307597267893</v>
+        <v>0.05173307597267934</v>
       </c>
       <c r="M91">
-        <v>370.7293064734361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.05173307597267934</v>
+      </c>
+      <c r="N91">
+        <v>370.7293064734405</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>145.6334486936112</v>
+        <v>145.6334486936111</v>
       </c>
       <c r="B92">
-        <v>4262516.836593702</v>
+        <v>4262516.836593756</v>
       </c>
       <c r="C92">
-        <v>6604.468663754854</v>
+        <v>6604.468663755157</v>
       </c>
       <c r="D92">
-        <v>21304.81620104792</v>
+        <v>21304.81620104813</v>
       </c>
       <c r="E92">
-        <v>2606.539384918168</v>
+        <v>2606.539384918123</v>
       </c>
       <c r="F92">
-        <v>2161.213403302</v>
+        <v>2161.213403301978</v>
       </c>
       <c r="G92">
-        <v>5.468268921583819</v>
+        <v>5.4682689215838</v>
       </c>
       <c r="H92">
-        <v>96.6562794707621</v>
+        <v>96.65627947075602</v>
       </c>
       <c r="I92">
-        <v>5.966843988099084E-08</v>
+        <v>5.966843988098484E-08</v>
       </c>
       <c r="J92">
-        <v>1.450608105559403E-08</v>
+        <v>1.450608105559375E-08</v>
       </c>
       <c r="K92">
-        <v>5.372220085087453E-05</v>
+        <v>5.372220085087558E-05</v>
       </c>
       <c r="L92">
-        <v>0.05038761037176184</v>
+        <v>0.05038761037176246</v>
       </c>
       <c r="M92">
-        <v>359.0401344629472</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.05038761037176246</v>
+      </c>
+      <c r="N92">
+        <v>359.0401344629544</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>146.6977220940949</v>
+        <v>146.6977220940947</v>
       </c>
       <c r="B93">
-        <v>4447624.774546486</v>
+        <v>4447624.77454649</v>
       </c>
       <c r="C93">
-        <v>7041.093186019555</v>
+        <v>7041.093186019654</v>
       </c>
       <c r="D93">
-        <v>20857.32863872071</v>
+        <v>20857.32863872083</v>
       </c>
       <c r="E93">
         <v>2436.427019961508</v>
       </c>
       <c r="F93">
-        <v>2018.000608070649</v>
+        <v>2018.000608070658</v>
       </c>
       <c r="G93">
-        <v>5.496580412678974</v>
+        <v>5.496580412678959</v>
       </c>
       <c r="H93">
-        <v>106.6299248547554</v>
+        <v>106.629924854751</v>
       </c>
       <c r="I93">
-        <v>7.063594318762208E-08</v>
+        <v>7.063594318761764E-08</v>
       </c>
       <c r="J93">
-        <v>1.514628709763387E-08</v>
+        <v>1.51462870976337E-08</v>
       </c>
       <c r="K93">
-        <v>5.163652529623757E-05</v>
+        <v>5.163652529623811E-05</v>
       </c>
       <c r="L93">
-        <v>0.04905411315656415</v>
+        <v>0.04905411315656453</v>
       </c>
       <c r="M93">
-        <v>347.1116582958062</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.04905411315656453</v>
+      </c>
+      <c r="N93">
+        <v>347.1116582958102</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>147.7619954945786</v>
+        <v>147.7619954945784</v>
       </c>
       <c r="B94">
-        <v>4638266.282337011</v>
+        <v>4638266.282336905</v>
       </c>
       <c r="C94">
-        <v>7510.000007626326</v>
+        <v>7510.00000762588</v>
       </c>
       <c r="D94">
-        <v>20385.06486420204</v>
+        <v>20385.06486420202</v>
       </c>
       <c r="E94">
-        <v>2258.015615895741</v>
+        <v>2258.01561589585</v>
       </c>
       <c r="F94">
-        <v>1867.936169035736</v>
+        <v>1867.936169035817</v>
       </c>
       <c r="G94">
-        <v>5.53548922299703</v>
+        <v>5.535489222997057</v>
       </c>
       <c r="H94">
-        <v>119.3843382480165</v>
+        <v>119.3843382480192</v>
       </c>
       <c r="I94">
-        <v>8.522326441166708E-08</v>
+        <v>8.522326441166925E-08</v>
       </c>
       <c r="J94">
         <v>1.584250428914519E-08</v>
       </c>
       <c r="K94">
-        <v>4.954516977470263E-05</v>
+        <v>4.954516977470254E-05</v>
       </c>
       <c r="L94">
-        <v>0.04772798917274226</v>
+        <v>0.04772798917274225</v>
       </c>
       <c r="M94">
-        <v>334.9058703683074</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.04772798917274225</v>
+      </c>
+      <c r="N94">
+        <v>334.9058703683064</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>148.8262688950622</v>
+        <v>148.8262688950621</v>
       </c>
       <c r="B95">
-        <v>4834356.558510418</v>
+        <v>4834356.55851031</v>
       </c>
       <c r="C95">
-        <v>8014.798816736014</v>
+        <v>8014.798816735499</v>
       </c>
       <c r="D95">
-        <v>19882.700595257</v>
+        <v>19882.70059525698</v>
       </c>
       <c r="E95">
-        <v>2070.116895377681</v>
+        <v>2070.116895377783</v>
       </c>
       <c r="F95">
-        <v>1710.081976513124</v>
+        <v>1710.081976513196</v>
       </c>
       <c r="G95">
-        <v>5.586867769292831</v>
+        <v>5.586867769292861</v>
       </c>
       <c r="H95">
-        <v>136.3135129991853</v>
+        <v>136.313512999189</v>
       </c>
       <c r="I95">
-        <v>1.053939306812375E-07</v>
+        <v>1.053939306812407E-07</v>
       </c>
       <c r="J95">
         <v>1.660700830655382E-08</v>
       </c>
       <c r="K95">
-        <v>4.743660327396905E-05</v>
+        <v>4.743660327396895E-05</v>
       </c>
       <c r="L95">
-        <v>0.04640174771857909</v>
+        <v>0.04640174771857904</v>
       </c>
       <c r="M95">
-        <v>322.3688346048066</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.04640174771857904</v>
+      </c>
+      <c r="N95">
+        <v>322.3688346048053</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>149.8905422955459</v>
+        <v>149.8905422955458</v>
       </c>
       <c r="B96">
-        <v>5035767.636919097</v>
+        <v>5035767.636919128</v>
       </c>
       <c r="C96">
-        <v>8561.395319263011</v>
+        <v>8561.395319263329</v>
       </c>
       <c r="D96">
-        <v>19342.40973202091</v>
+        <v>19342.40973202106</v>
       </c>
       <c r="E96">
-        <v>1870.66680249951</v>
+        <v>1870.666802499457</v>
       </c>
       <c r="F96">
-        <v>1542.820583459517</v>
+        <v>1542.820583459481</v>
       </c>
       <c r="G96">
-        <v>5.653310252162751</v>
+        <v>5.653310252162692</v>
       </c>
       <c r="H96">
-        <v>159.9273636164167</v>
+        <v>159.9273636164034</v>
       </c>
       <c r="I96">
-        <v>1.347744361497571E-07</v>
+        <v>1.347744361497423E-07</v>
       </c>
       <c r="J96">
-        <v>1.745769099183958E-08</v>
+        <v>1.745769099183934E-08</v>
       </c>
       <c r="K96">
-        <v>4.529356255099381E-05</v>
+        <v>4.529356255099444E-05</v>
       </c>
       <c r="L96">
-        <v>0.04506352271468931</v>
+        <v>0.04506352271468966</v>
       </c>
       <c r="M96">
-        <v>309.4209344802315</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.04506352271468966</v>
+      </c>
+      <c r="N96">
+        <v>309.4209344802364</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>150.9548156960296</v>
+        <v>150.9548156960295</v>
       </c>
       <c r="B97">
-        <v>5242334.494826234</v>
+        <v>5242334.494826068</v>
       </c>
       <c r="C97">
-        <v>9160.084916337515</v>
+        <v>9160.0849163364</v>
       </c>
       <c r="D97">
-        <v>18751.9666461462</v>
+        <v>18751.96664614598</v>
       </c>
       <c r="E97">
-        <v>1656.030625152556</v>
+        <v>1656.030625152749</v>
       </c>
       <c r="F97">
-        <v>1363.290521758657</v>
+        <v>1363.290521758795</v>
       </c>
       <c r="G97">
-        <v>5.738650648720113</v>
+        <v>5.738650648720228</v>
       </c>
       <c r="H97">
-        <v>195.2470501418928</v>
+        <v>195.2470501419227</v>
       </c>
       <c r="I97">
-        <v>1.808252712367769E-07</v>
+        <v>1.80825271236812E-07</v>
       </c>
       <c r="J97">
-        <v>1.842238725434917E-08</v>
+        <v>1.842238725434948E-08</v>
       </c>
       <c r="K97">
-        <v>4.308871191424587E-05</v>
+        <v>4.308871191424501E-05</v>
       </c>
       <c r="L97">
-        <v>0.0436942542499479</v>
+        <v>0.04369425424994748</v>
       </c>
       <c r="M97">
-        <v>295.9379629927135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.04369425424994748</v>
+      </c>
+      <c r="N97">
+        <v>295.9379629927061</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>152.0190890965133</v>
+        <v>152.0190890965131</v>
       </c>
       <c r="B98">
-        <v>5453864.093311354</v>
+        <v>5453864.093311437</v>
       </c>
       <c r="C98">
-        <v>9829.982710744775</v>
+        <v>9829.982710745868</v>
       </c>
       <c r="D98">
-        <v>18090.49644561982</v>
+        <v>18090.49644562041</v>
       </c>
       <c r="E98">
-        <v>1419.528698319084</v>
+        <v>1419.528698318957</v>
       </c>
       <c r="F98">
-        <v>1166.186152754032</v>
+        <v>1166.18615275395</v>
       </c>
       <c r="G98">
-        <v>5.849086306619799</v>
+        <v>5.849086306619577</v>
       </c>
       <c r="H98">
-        <v>253.9918089504642</v>
+        <v>253.9918089503682</v>
       </c>
       <c r="I98">
-        <v>2.615117190332673E-07</v>
+        <v>2.61511719033142E-07</v>
       </c>
       <c r="J98">
-        <v>1.954862785397832E-08</v>
+        <v>1.954862785397738E-08</v>
       </c>
       <c r="K98">
-        <v>4.077496035902902E-05</v>
+        <v>4.077496035903107E-05</v>
       </c>
       <c r="L98">
-        <v>0.04226155553745607</v>
+        <v>0.0422615555374572</v>
       </c>
       <c r="M98">
-        <v>281.708939234837</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.0422615555374572</v>
+      </c>
+      <c r="N98">
+        <v>281.7089392348524</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>153.083362496997</v>
+        <v>153.0833624969968</v>
       </c>
       <c r="B99">
-        <v>5670145.821895884</v>
+        <v>5670145.821896099</v>
       </c>
       <c r="C99">
-        <v>10610.78232807501</v>
+        <v>10610.78232807841</v>
       </c>
       <c r="D99">
-        <v>17316.84540216918</v>
+        <v>17316.84540217125</v>
       </c>
       <c r="E99">
-        <v>1147.485414840545</v>
+        <v>1147.485414840208</v>
       </c>
       <c r="F99">
-        <v>940.544827816466</v>
+        <v>940.5448278162527</v>
       </c>
       <c r="G99">
-        <v>5.996141803643606</v>
+        <v>5.996141803642787</v>
       </c>
       <c r="H99">
-        <v>371.3295567043929</v>
+        <v>371.3295567037182</v>
       </c>
       <c r="I99">
-        <v>4.327380375206807E-07</v>
+        <v>4.327380375197409E-07</v>
       </c>
       <c r="J99">
-        <v>2.09304926484522E-08</v>
+        <v>2.093049264844866E-08</v>
       </c>
       <c r="K99">
-        <v>3.825895316421456E-05</v>
+        <v>3.825895316422128E-05</v>
       </c>
       <c r="L99">
-        <v>0.04070343917386205</v>
+        <v>0.04070343917386563</v>
       </c>
       <c r="M99">
-        <v>266.3205478427136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.04070343917386563</v>
+      </c>
+      <c r="N99">
+        <v>266.3205478427636</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>154.1476358974807</v>
+        <v>154.1476358974805</v>
       </c>
       <c r="B100">
-        <v>5890961.808559907</v>
+        <v>5890961.808559978</v>
       </c>
       <c r="C100">
-        <v>11608.53618611074</v>
+        <v>11608.5361861131</v>
       </c>
       <c r="D100">
-        <v>16323.86537736576</v>
+        <v>16323.86537736756</v>
       </c>
       <c r="E100">
-        <v>803.7493036429031</v>
+        <v>803.7493036427522</v>
       </c>
       <c r="F100">
-        <v>657.161526002717</v>
+        <v>657.1615260026261</v>
       </c>
       <c r="G100">
-        <v>6.207825180015734</v>
+        <v>6.207825180015123</v>
       </c>
       <c r="H100">
-        <v>723.118866159402</v>
+        <v>723.1188661578766</v>
       </c>
       <c r="I100">
-        <v>9.873642632297167E-07</v>
+        <v>9.873642632273381E-07</v>
       </c>
       <c r="J100">
-        <v>2.281490280388266E-08</v>
+        <v>2.281490280387932E-08</v>
       </c>
       <c r="K100">
-        <v>3.529660106809206E-05</v>
+        <v>3.52966010680973E-05</v>
       </c>
       <c r="L100">
-        <v>0.03886625036153624</v>
+        <v>0.03886625036153907</v>
       </c>
       <c r="M100">
-        <v>248.7013683841285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.03886625036153907</v>
+      </c>
+      <c r="N100">
+        <v>248.7013683841635</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>155.2119092979644</v>
+        <v>155.2119092979642</v>
       </c>
       <c r="B101">
-        <v>6116094.670430182</v>
+        <v>6116094.67288278</v>
       </c>
       <c r="C101">
-        <v>14015.91588795878</v>
+        <v>14015.3475816335</v>
       </c>
       <c r="D101">
-        <v>14021.43827454069</v>
+        <v>14021.98464692798</v>
       </c>
       <c r="E101">
-        <v>0.9366289622053244</v>
+        <v>1.125685352521187</v>
       </c>
       <c r="F101">
-        <v>0.7647641542473959</v>
+        <v>0.9191297737257301</v>
       </c>
       <c r="G101">
-        <v>6.73467234649112</v>
+        <v>6.734551607291436</v>
       </c>
       <c r="H101">
-        <v>8945786.46245346</v>
+        <v>7418603.005298094</v>
       </c>
       <c r="I101">
-        <v>0.01751285602641226</v>
+        <v>0.01452192464603185</v>
       </c>
       <c r="J101">
-        <v>2.776304036816762E-08</v>
+        <v>2.776175189194084E-08</v>
       </c>
       <c r="K101">
-        <v>2.938399636894418E-05</v>
+        <v>2.938526338140767E-05</v>
       </c>
       <c r="L101">
-        <v>0.03528055695417873</v>
+        <v>0.03528129131417324</v>
       </c>
       <c r="M101">
-        <v>217.9038348041893</v>
+        <v>0.03528129131417324</v>
+      </c>
+      <c r="N101">
+        <v>217.9094587591903</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
